--- a/excel/collective/zestawy_dla_uczniow/zestaw_008.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_008.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="293">
   <si>
     <t>ZESTAW ZADAŃ NR 8 - CZĘŚĆ 1</t>
   </si>
@@ -61,19 +61,19 @@
     <t>Przedmiot</t>
   </si>
   <si>
-    <t>Anna Zawadzka</t>
-  </si>
-  <si>
-    <t>Hanna Czarnecka</t>
-  </si>
-  <si>
-    <t>Maja Jaworska</t>
-  </si>
-  <si>
-    <t>Jakub Woźniak</t>
-  </si>
-  <si>
-    <t>Adam Kozłowski</t>
+    <t>Zuzanna Maciejewska</t>
+  </si>
+  <si>
+    <t>Natalia Górska</t>
+  </si>
+  <si>
+    <t>Antoni Wójcik</t>
+  </si>
+  <si>
+    <t>Natalia Piekarska</t>
+  </si>
+  <si>
+    <t>Jakub Grabowski</t>
   </si>
   <si>
     <t>ŚREDNIA</t>
@@ -163,37 +163,37 @@
     <t>Pędzelek</t>
   </si>
   <si>
-    <t>3,60</t>
+    <t>6,30</t>
+  </si>
+  <si>
+    <t>Zeszyt 60 kartek</t>
+  </si>
+  <si>
+    <t>4,30</t>
+  </si>
+  <si>
+    <t>Blok rysunkowy A4</t>
+  </si>
+  <si>
+    <t>6,70</t>
+  </si>
+  <si>
+    <t>Temperówka</t>
+  </si>
+  <si>
+    <t>2,90</t>
+  </si>
+  <si>
+    <t>Gumka do mazania</t>
+  </si>
+  <si>
+    <t>1,50</t>
   </si>
   <si>
     <t>Farby plakatowe 12 kolorów</t>
   </si>
   <si>
-    <t>17,00</t>
-  </si>
-  <si>
-    <t>Blok rysunkowy A4</t>
-  </si>
-  <si>
-    <t>4,50</t>
-  </si>
-  <si>
-    <t>Linijka 30 cm</t>
-  </si>
-  <si>
-    <t>2,60</t>
-  </si>
-  <si>
-    <t>Temperówka</t>
-  </si>
-  <si>
-    <t>1,50</t>
-  </si>
-  <si>
-    <t>Długopis niebieski</t>
-  </si>
-  <si>
-    <t>1,70</t>
+    <t>15,50</t>
   </si>
   <si>
     <t>SUMA:</t>
@@ -220,31 +220,31 @@
     <t>Zeszyt</t>
   </si>
   <si>
-    <t>8,92</t>
+    <t>8,63</t>
   </si>
   <si>
     <t>Ołówek</t>
   </si>
   <si>
-    <t>19,85</t>
+    <t>8,04</t>
   </si>
   <si>
     <t>Długopis</t>
   </si>
   <si>
-    <t>21,83</t>
+    <t>16,53</t>
   </si>
   <si>
     <t>Linijka</t>
   </si>
   <si>
-    <t>22,60</t>
+    <t>19,65</t>
   </si>
   <si>
     <t>Gumka</t>
   </si>
   <si>
-    <t>5,15</t>
+    <t>16,74</t>
   </si>
   <si>
     <t>Razem Styczeń:</t>
@@ -253,19 +253,19 @@
     <t>Luty:</t>
   </si>
   <si>
-    <t>15,94</t>
-  </si>
-  <si>
-    <t>8,36</t>
-  </si>
-  <si>
-    <t>6,84</t>
-  </si>
-  <si>
-    <t>25,31</t>
-  </si>
-  <si>
-    <t>6,56</t>
+    <t>1,77</t>
+  </si>
+  <si>
+    <t>18,15</t>
+  </si>
+  <si>
+    <t>18,51</t>
+  </si>
+  <si>
+    <t>26,67</t>
+  </si>
+  <si>
+    <t>11,12</t>
   </si>
   <si>
     <t>Razem Luty:</t>
@@ -274,16 +274,19 @@
     <t>Marzec:</t>
   </si>
   <si>
-    <t>21,32</t>
-  </si>
-  <si>
-    <t>21,40</t>
-  </si>
-  <si>
-    <t>14,17</t>
-  </si>
-  <si>
-    <t>20,66</t>
+    <t>7,41</t>
+  </si>
+  <si>
+    <t>11,41</t>
+  </si>
+  <si>
+    <t>28,65</t>
+  </si>
+  <si>
+    <t>2,99</t>
+  </si>
+  <si>
+    <t>14,46</t>
   </si>
   <si>
     <t>Razem Marzec:</t>
@@ -337,43 +340,31 @@
     <t>Czy pasek?</t>
   </si>
   <si>
-    <t>Anna</t>
-  </si>
-  <si>
-    <t>Piekarska</t>
-  </si>
-  <si>
-    <t>Amelia</t>
-  </si>
-  <si>
-    <t>Kubiak</t>
-  </si>
-  <si>
-    <t>Natalia</t>
-  </si>
-  <si>
-    <t>Jaworska</t>
-  </si>
-  <si>
-    <t>Adam</t>
-  </si>
-  <si>
-    <t>Woźniak</t>
-  </si>
-  <si>
-    <t>Maciejewska</t>
+    <t>Wojciech</t>
+  </si>
+  <si>
+    <t>Wojciechowski</t>
+  </si>
+  <si>
+    <t>Szymon</t>
+  </si>
+  <si>
+    <t>Kozłowski</t>
+  </si>
+  <si>
+    <t>Wiśniewski</t>
+  </si>
+  <si>
+    <t>Oliwia</t>
+  </si>
+  <si>
+    <t>Czarnecka</t>
   </si>
   <si>
     <t>Julia</t>
   </si>
   <si>
-    <t>Kacper</t>
-  </si>
-  <si>
-    <t>Kamiński</t>
-  </si>
-  <si>
-    <t>Król</t>
+    <t>Kaźmierczak</t>
   </si>
   <si>
     <t>Średnia przedmiotu:</t>
@@ -409,148 +400,133 @@
     <t>Zarobki (zł)</t>
   </si>
   <si>
-    <t>Jan Grabowski</t>
-  </si>
-  <si>
-    <t>18.11.1983</t>
-  </si>
-  <si>
-    <t>4 931,00 zł</t>
-  </si>
-  <si>
-    <t>Maja Sikorska</t>
-  </si>
-  <si>
-    <t>06.07.2002</t>
-  </si>
-  <si>
-    <t>4 067,00 zł</t>
-  </si>
-  <si>
-    <t>Antoni Krawczyk</t>
-  </si>
-  <si>
-    <t>05.09.1995</t>
-  </si>
-  <si>
-    <t>12 679,00 zł</t>
-  </si>
-  <si>
-    <t>Filip Wojciechowski</t>
-  </si>
-  <si>
-    <t>06.08.1998</t>
-  </si>
-  <si>
-    <t>3 244,00 zł</t>
-  </si>
-  <si>
-    <t>Natalia Maciejewska</t>
-  </si>
-  <si>
-    <t>10.05.1977</t>
-  </si>
-  <si>
-    <t>6 924,00 zł</t>
-  </si>
-  <si>
-    <t>Oliwia Kubiak</t>
-  </si>
-  <si>
-    <t>13.03.1989</t>
-  </si>
-  <si>
-    <t>7 130,00 zł</t>
-  </si>
-  <si>
-    <t>Jakub Wojciechowski</t>
-  </si>
-  <si>
-    <t>26.04.1998</t>
-  </si>
-  <si>
-    <t>6 476,00 zł</t>
-  </si>
-  <si>
-    <t>Lena Borkowska</t>
-  </si>
-  <si>
-    <t>09.12.1996</t>
-  </si>
-  <si>
-    <t>12 517,00 zł</t>
+    <t>Aleksander Jankowski</t>
+  </si>
+  <si>
+    <t>01.07.1999</t>
+  </si>
+  <si>
+    <t>13 078,00 zł</t>
+  </si>
+  <si>
+    <t>Zuzanna Borkowska</t>
+  </si>
+  <si>
+    <t>28.03.2005</t>
+  </si>
+  <si>
+    <t>8 229,00 zł</t>
+  </si>
+  <si>
+    <t>Maja Zawadzka</t>
+  </si>
+  <si>
+    <t>15.04.1999</t>
+  </si>
+  <si>
+    <t>9 412,00 zł</t>
+  </si>
+  <si>
+    <t>Kacper Kaczmarek</t>
+  </si>
+  <si>
+    <t>10.04.1975</t>
+  </si>
+  <si>
+    <t>9 044,00 zł</t>
   </si>
   <si>
     <t>Kacper Kwiatkowski</t>
   </si>
   <si>
-    <t>09.09.1990</t>
-  </si>
-  <si>
-    <t>8 549,00 zł</t>
-  </si>
-  <si>
-    <t>Jan Kozłowski</t>
-  </si>
-  <si>
-    <t>04.11.1975</t>
-  </si>
-  <si>
-    <t>3 849,00 zł</t>
-  </si>
-  <si>
-    <t>Jan Wiśniewski</t>
-  </si>
-  <si>
-    <t>17.02.1991</t>
-  </si>
-  <si>
-    <t>3 643,00 zł</t>
-  </si>
-  <si>
-    <t>Adam Kamiński</t>
-  </si>
-  <si>
-    <t>28.03.1999</t>
-  </si>
-  <si>
-    <t>7 950,00 zł</t>
-  </si>
-  <si>
-    <t>Jan Mazur</t>
-  </si>
-  <si>
-    <t>27.02.1996</t>
-  </si>
-  <si>
-    <t>5 301,00 zł</t>
-  </si>
-  <si>
-    <t>Oliwia Olszewska</t>
-  </si>
-  <si>
-    <t>08.11.1995</t>
-  </si>
-  <si>
-    <t>14 269,00 zł</t>
-  </si>
-  <si>
-    <t>Wojciech Kaczmarek</t>
-  </si>
-  <si>
-    <t>09.01.2003</t>
-  </si>
-  <si>
-    <t>8 091,00 zł</t>
-  </si>
-  <si>
-    <t>Emilia Maciejewska</t>
-  </si>
-  <si>
-    <t>10.04.2004</t>
-  </si>
-  <si>
-    <t>2 670,00 zł</t>
+    <t>02.04.1987</t>
+  </si>
+  <si>
+    <t>4 159,00 zł</t>
+  </si>
+  <si>
+    <t>Emilia Lis</t>
+  </si>
+  <si>
+    <t>18.06.2003</t>
+  </si>
+  <si>
+    <t>11 762,00 zł</t>
+  </si>
+  <si>
+    <t>28.12.1981</t>
+  </si>
+  <si>
+    <t>14 659,00 zł</t>
+  </si>
+  <si>
+    <t>Julia Górska</t>
+  </si>
+  <si>
+    <t>08.12.1977</t>
+  </si>
+  <si>
+    <t>9 735,00 zł</t>
+  </si>
+  <si>
+    <t>Jan Krawczyk</t>
+  </si>
+  <si>
+    <t>12.09.1987</t>
+  </si>
+  <si>
+    <t>13 457,00 zł</t>
+  </si>
+  <si>
+    <t>Kacper Mazur</t>
+  </si>
+  <si>
+    <t>03.08.1976</t>
+  </si>
+  <si>
+    <t>11 253,00 zł</t>
+  </si>
+  <si>
+    <t>Emilia Wilk</t>
+  </si>
+  <si>
+    <t>17.08.1988</t>
+  </si>
+  <si>
+    <t>12 282,00 zł</t>
+  </si>
+  <si>
+    <t>26.12.2001</t>
+  </si>
+  <si>
+    <t>2 683,00 zł</t>
+  </si>
+  <si>
+    <t>Wojciech Kwiatkowski</t>
+  </si>
+  <si>
+    <t>26.04.1975</t>
+  </si>
+  <si>
+    <t>14 253,00 zł</t>
+  </si>
+  <si>
+    <t>Amelia Urbaniak</t>
+  </si>
+  <si>
+    <t>05.01.1998</t>
+  </si>
+  <si>
+    <t>4 082,00 zł</t>
+  </si>
+  <si>
+    <t>Szymon Lewandowski</t>
+  </si>
+  <si>
+    <t>07.04.1976</t>
+  </si>
+  <si>
+    <t>11 445,00 zł</t>
   </si>
   <si>
     <t>OBLICZENIA:</t>
@@ -622,325 +598,292 @@
     <t>Województwo</t>
   </si>
   <si>
-    <t>Styczeń</t>
-  </si>
-  <si>
-    <t>Smart TV 55"</t>
-  </si>
-  <si>
-    <t>913,00 zł</t>
-  </si>
-  <si>
-    <t>1 096,00 zł</t>
+    <t>luty</t>
+  </si>
+  <si>
+    <t>Słuchawki bezprzewodowe</t>
+  </si>
+  <si>
+    <t>966,00 zł</t>
+  </si>
+  <si>
+    <t>1 130,00 zł</t>
+  </si>
+  <si>
+    <t>Michał Jankowski</t>
+  </si>
+  <si>
+    <t>podkarpackie</t>
+  </si>
+  <si>
+    <t>maj</t>
+  </si>
+  <si>
+    <t>Karta graficzna RTX</t>
+  </si>
+  <si>
+    <t>1 185,00 zł</t>
+  </si>
+  <si>
+    <t>1 647,00 zł</t>
+  </si>
+  <si>
+    <t>Barbara Kozłowska</t>
+  </si>
+  <si>
+    <t>kujawsko-pomorskie</t>
+  </si>
+  <si>
+    <t>kwiecień</t>
+  </si>
+  <si>
+    <t>Płyta główna</t>
+  </si>
+  <si>
+    <t>562,00 zł</t>
+  </si>
+  <si>
+    <t>663,00 zł</t>
+  </si>
+  <si>
+    <t>Katarzyna Mazur</t>
+  </si>
+  <si>
+    <t>lubelskie</t>
+  </si>
+  <si>
+    <t>marzec</t>
+  </si>
+  <si>
+    <t>Odtwarzacz DVD</t>
+  </si>
+  <si>
+    <t>1 011,00 zł</t>
+  </si>
+  <si>
+    <t>1 132,00 zł</t>
+  </si>
+  <si>
+    <t>Anna Nowak</t>
+  </si>
+  <si>
+    <t>podlaskie</t>
+  </si>
+  <si>
+    <t>Router Wi-Fi 6</t>
+  </si>
+  <si>
+    <t>762,00 zł</t>
+  </si>
+  <si>
+    <t>953,00 zł</t>
+  </si>
+  <si>
+    <t>Marcin Zieliński</t>
+  </si>
+  <si>
+    <t>mazowieckie</t>
+  </si>
+  <si>
+    <t>Laptop Gaming i7</t>
+  </si>
+  <si>
+    <t>1 349,00 zł</t>
+  </si>
+  <si>
+    <t>1 781,00 zł</t>
+  </si>
+  <si>
+    <t>Piotr Wiśniewski</t>
+  </si>
+  <si>
+    <t>lubuskie</t>
+  </si>
+  <si>
+    <t>693,00 zł</t>
+  </si>
+  <si>
+    <t>894,00 zł</t>
+  </si>
+  <si>
+    <t>Paweł Kwiatkowski</t>
+  </si>
+  <si>
+    <t>styczeń</t>
+  </si>
+  <si>
+    <t>981,00 zł</t>
+  </si>
+  <si>
+    <t>1 207,00 zł</t>
   </si>
   <si>
     <t>Agnieszka Wojciechowska</t>
   </si>
   <si>
+    <t>Smartphone 5G 128GB</t>
+  </si>
+  <si>
+    <t>753,00 zł</t>
+  </si>
+  <si>
+    <t>1 032,00 zł</t>
+  </si>
+  <si>
+    <t>świętokrzyskie</t>
+  </si>
+  <si>
+    <t>1 371,00 zł</t>
+  </si>
+  <si>
+    <t>1 700,00 zł</t>
+  </si>
+  <si>
+    <t>Magdalena Szymańska</t>
+  </si>
+  <si>
+    <t>zachodniopomorskie</t>
+  </si>
+  <si>
+    <t>Kamera internetowa</t>
+  </si>
+  <si>
+    <t>1 380,00 zł</t>
+  </si>
+  <si>
+    <t>1 932,00 zł</t>
+  </si>
+  <si>
+    <t>Monika Krawczyk</t>
+  </si>
+  <si>
+    <t>689,00 zł</t>
+  </si>
+  <si>
+    <t>758,00 zł</t>
+  </si>
+  <si>
+    <t>Mysz gamingowa</t>
+  </si>
+  <si>
+    <t>1 767,00 zł</t>
+  </si>
+  <si>
+    <t>warmińsko-mazurskie</t>
+  </si>
+  <si>
+    <t>czerwiec</t>
+  </si>
+  <si>
+    <t>Zasilacz 650W</t>
+  </si>
+  <si>
+    <t>1 264,00 zł</t>
+  </si>
+  <si>
+    <t>1 631,00 zł</t>
+  </si>
+  <si>
+    <t>małopolskie</t>
+  </si>
+  <si>
+    <t>1 114,00 zł</t>
+  </si>
+  <si>
+    <t>1 281,00 zł</t>
+  </si>
+  <si>
+    <t>Powerbank 20000mAh</t>
+  </si>
+  <si>
+    <t>579,00 zł</t>
+  </si>
+  <si>
+    <t>677,00 zł</t>
+  </si>
+  <si>
+    <t>Głośnik Bluetooth</t>
+  </si>
+  <si>
+    <t>1 038,00 zł</t>
+  </si>
+  <si>
+    <t>1 360,00 zł</t>
+  </si>
+  <si>
+    <t>Krzysztof Lewandowski</t>
+  </si>
+  <si>
+    <t>1 446,00 zł</t>
+  </si>
+  <si>
+    <t>1 981,00 zł</t>
+  </si>
+  <si>
+    <t>Drukarka laserowa</t>
+  </si>
+  <si>
+    <t>1 222,00 zł</t>
+  </si>
+  <si>
+    <t>1 662,00 zł</t>
+  </si>
+  <si>
     <t>wielkopolskie</t>
   </si>
   <si>
-    <t>Konsola do gier</t>
-  </si>
-  <si>
-    <t>1 119,00 zł</t>
-  </si>
-  <si>
-    <t>1 567,00 zł</t>
-  </si>
-  <si>
-    <t>pomorskie</t>
-  </si>
-  <si>
-    <t>Mysz gamingowa</t>
-  </si>
-  <si>
-    <t>1 181,00 zł</t>
-  </si>
-  <si>
-    <t>1 523,00 zł</t>
-  </si>
-  <si>
-    <t>Marcin Zieliński</t>
-  </si>
-  <si>
-    <t>małopolskie</t>
-  </si>
-  <si>
-    <t>Luty</t>
-  </si>
-  <si>
-    <t>Słuchawki bezprzewodowe</t>
-  </si>
-  <si>
-    <t>735,00 zł</t>
-  </si>
-  <si>
-    <t>1 007,00 zł</t>
-  </si>
-  <si>
-    <t>Anna Nowak</t>
-  </si>
-  <si>
-    <t>zachodniopomorskie</t>
-  </si>
-  <si>
-    <t>Dysk SSD 1TB</t>
-  </si>
-  <si>
-    <t>1 188,00 zł</t>
-  </si>
-  <si>
-    <t>1 639,00 zł</t>
-  </si>
-  <si>
-    <t>Ewa Kowalczyk</t>
-  </si>
-  <si>
-    <t>lubelskie</t>
-  </si>
-  <si>
-    <t>Zasilacz 650W</t>
-  </si>
-  <si>
-    <t>962,00 zł</t>
-  </si>
-  <si>
-    <t>1 154,00 zł</t>
-  </si>
-  <si>
-    <t>Barbara Kozłowska</t>
-  </si>
-  <si>
-    <t>łódzkie</t>
-  </si>
-  <si>
-    <t>Laptop Gaming i7</t>
-  </si>
-  <si>
-    <t>1 499,00 zł</t>
-  </si>
-  <si>
-    <t>1 739,00 zł</t>
-  </si>
-  <si>
-    <t>Smartphone 5G 128GB</t>
-  </si>
-  <si>
-    <t>703,00 zł</t>
-  </si>
-  <si>
-    <t>977,00 zł</t>
-  </si>
-  <si>
-    <t>Paweł Kwiatkowski</t>
-  </si>
-  <si>
-    <t>podlaskie</t>
-  </si>
-  <si>
-    <t>Powerbank 20000mAh</t>
-  </si>
-  <si>
-    <t>1 114,00 zł</t>
-  </si>
-  <si>
-    <t>1 493,00 zł</t>
-  </si>
-  <si>
-    <t>warmińsko-mazurskie</t>
+    <t>1 170,00 zł</t>
+  </si>
+  <si>
+    <t>1 439,00 zł</t>
+  </si>
+  <si>
+    <t>Maria Dąbrowska</t>
+  </si>
+  <si>
+    <t>Procesor i5</t>
+  </si>
+  <si>
+    <t>1 077,00 zł</t>
+  </si>
+  <si>
+    <t>1 195,00 zł</t>
+  </si>
+  <si>
+    <t>1 428,00 zł</t>
+  </si>
+  <si>
+    <t>1 871,00 zł</t>
   </si>
   <si>
     <t>Obudowa gamingowa</t>
   </si>
   <si>
-    <t>1 294,00 zł</t>
-  </si>
-  <si>
-    <t>1 605,00 zł</t>
-  </si>
-  <si>
-    <t>Piotr Wiśniewski</t>
-  </si>
-  <si>
-    <t>lubuskie</t>
-  </si>
-  <si>
-    <t>Procesor i5</t>
-  </si>
-  <si>
-    <t>1 262,00 zł</t>
-  </si>
-  <si>
-    <t>1 489,00 zł</t>
-  </si>
-  <si>
     <t>1 325,00 zł</t>
   </si>
   <si>
-    <t>1 590,00 zł</t>
-  </si>
-  <si>
-    <t>Katarzyna Mazur</t>
-  </si>
-  <si>
-    <t>1 434,00 zł</t>
-  </si>
-  <si>
-    <t>1 907,00 zł</t>
-  </si>
-  <si>
-    <t>Andrzej Woźniak</t>
-  </si>
-  <si>
-    <t>Marzec</t>
-  </si>
-  <si>
-    <t>1 419,00 zł</t>
-  </si>
-  <si>
-    <t>1 901,00 zł</t>
-  </si>
-  <si>
-    <t>657,00 zł</t>
-  </si>
-  <si>
-    <t>848,00 zł</t>
-  </si>
-  <si>
-    <t>świętokrzyskie</t>
-  </si>
-  <si>
-    <t>1 267,00 zł</t>
-  </si>
-  <si>
-    <t>1 482,00 zł</t>
-  </si>
-  <si>
-    <t>Router Wi-Fi 6</t>
-  </si>
-  <si>
-    <t>1 122,00 zł</t>
-  </si>
-  <si>
-    <t>1 313,00 zł</t>
-  </si>
-  <si>
-    <t>1 287,00 zł</t>
-  </si>
-  <si>
-    <t>1 802,00 zł</t>
-  </si>
-  <si>
-    <t>Głośnik Bluetooth</t>
-  </si>
-  <si>
-    <t>1 321,00 zł</t>
-  </si>
-  <si>
-    <t>1 810,00 zł</t>
-  </si>
-  <si>
-    <t>Maria Dąbrowska</t>
-  </si>
-  <si>
-    <t>Klawiatura mechaniczna</t>
-  </si>
-  <si>
-    <t>1 099,00 zł</t>
-  </si>
-  <si>
-    <t>1 385,00 zł</t>
+    <t>1 762,00 zł</t>
+  </si>
+  <si>
+    <t>Tablet 10"</t>
+  </si>
+  <si>
+    <t>1 065,00 zł</t>
+  </si>
+  <si>
+    <t>1 363,00 zł</t>
   </si>
   <si>
     <t>Jan Kowalski</t>
   </si>
   <si>
-    <t>Tablet 10"</t>
-  </si>
-  <si>
-    <t>1 211,00 zł</t>
-  </si>
-  <si>
-    <t>1 490,00 zł</t>
-  </si>
-  <si>
-    <t>podkarpackie</t>
-  </si>
-  <si>
     <t>Smartwatch</t>
   </si>
   <si>
-    <t>753,00 zł</t>
-  </si>
-  <si>
-    <t>1 039,00 zł</t>
-  </si>
-  <si>
-    <t>Krzysztof Lewandowski</t>
-  </si>
-  <si>
-    <t>Mikrofon studyjny</t>
-  </si>
-  <si>
-    <t>1 002,00 zł</t>
-  </si>
-  <si>
-    <t>1 132,00 zł</t>
-  </si>
-  <si>
-    <t>Monika Krawczyk</t>
-  </si>
-  <si>
-    <t>1 280,00 zł</t>
-  </si>
-  <si>
-    <t>1 728,00 zł</t>
-  </si>
-  <si>
-    <t>1 377,00 zł</t>
-  </si>
-  <si>
-    <t>1 611,00 zł</t>
-  </si>
-  <si>
-    <t>opolskie</t>
-  </si>
-  <si>
-    <t>Płyta główna</t>
-  </si>
-  <si>
-    <t>1 311,00 zł</t>
-  </si>
-  <si>
-    <t>1 731,00 zł</t>
-  </si>
-  <si>
-    <t>Michał Jankowski</t>
-  </si>
-  <si>
-    <t>Monitor 24" 4K</t>
-  </si>
-  <si>
-    <t>633,00 zł</t>
-  </si>
-  <si>
-    <t>842,00 zł</t>
-  </si>
-  <si>
-    <t>1 270,00 zł</t>
-  </si>
-  <si>
-    <t>1 638,00 zł</t>
-  </si>
-  <si>
-    <t>1 253,00 zł</t>
-  </si>
-  <si>
-    <t>1 742,00 zł</t>
-  </si>
-  <si>
-    <t>śląskie</t>
+    <t>1 250,00 zł</t>
+  </si>
+  <si>
+    <t>1 688,00 zł</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -1497,19 +1440,19 @@
         <v>19</v>
       </c>
       <c r="B17" s="3">
+        <v>6</v>
+      </c>
+      <c r="C17" s="3">
         <v>4</v>
-      </c>
-      <c r="C17" s="3">
-        <v>2</v>
       </c>
       <c r="D17" s="3">
         <v>6</v>
       </c>
       <c r="E17" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F17" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G17" s="5"/>
     </row>
@@ -1521,16 +1464,16 @@
         <v>3</v>
       </c>
       <c r="C18" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D18" s="3">
         <v>6</v>
       </c>
       <c r="E18" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F18" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G18" s="5"/>
     </row>
@@ -1539,19 +1482,19 @@
         <v>21</v>
       </c>
       <c r="B19" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C19" s="3">
+        <v>6</v>
+      </c>
+      <c r="D19" s="3">
+        <v>5</v>
+      </c>
+      <c r="E19" s="3">
         <v>4</v>
       </c>
-      <c r="D19" s="3">
-        <v>2</v>
-      </c>
-      <c r="E19" s="3">
-        <v>2</v>
-      </c>
       <c r="F19" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G19" s="5"/>
     </row>
@@ -1560,19 +1503,19 @@
         <v>22</v>
       </c>
       <c r="B20" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C20" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" s="3">
+        <v>5</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2</v>
+      </c>
+      <c r="F20" s="3">
         <v>6</v>
-      </c>
-      <c r="E20" s="3">
-        <v>5</v>
-      </c>
-      <c r="F20" s="3">
-        <v>4</v>
       </c>
       <c r="G20" s="5"/>
     </row>
@@ -1581,19 +1524,19 @@
         <v>23</v>
       </c>
       <c r="B21" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C21" s="3">
+        <v>2</v>
+      </c>
+      <c r="D21" s="3">
+        <v>2</v>
+      </c>
+      <c r="E21" s="3">
+        <v>3</v>
+      </c>
+      <c r="F21" s="3">
         <v>6</v>
-      </c>
-      <c r="D21" s="3">
-        <v>4</v>
-      </c>
-      <c r="E21" s="3">
-        <v>6</v>
-      </c>
-      <c r="F21" s="3">
-        <v>3</v>
       </c>
       <c r="G21" s="5"/>
     </row>
@@ -1602,19 +1545,19 @@
         <v>24</v>
       </c>
       <c r="B22" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C22" s="3">
+        <v>3</v>
+      </c>
+      <c r="D22" s="3">
         <v>2</v>
       </c>
-      <c r="D22" s="3">
-        <v>6</v>
-      </c>
       <c r="E22" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F22" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G22" s="5"/>
     </row>
@@ -1626,16 +1569,16 @@
         <v>6</v>
       </c>
       <c r="C23" s="3">
+        <v>5</v>
+      </c>
+      <c r="D23" s="3">
+        <v>3</v>
+      </c>
+      <c r="E23" s="3">
         <v>6</v>
       </c>
-      <c r="D23" s="3">
-        <v>2</v>
-      </c>
-      <c r="E23" s="3">
-        <v>2</v>
-      </c>
       <c r="F23" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G23" s="5"/>
     </row>
@@ -1644,19 +1587,19 @@
         <v>26</v>
       </c>
       <c r="B24" s="3">
+        <v>5</v>
+      </c>
+      <c r="C24" s="3">
+        <v>5</v>
+      </c>
+      <c r="D24" s="3">
+        <v>2</v>
+      </c>
+      <c r="E24" s="3">
         <v>4</v>
       </c>
-      <c r="C24" s="3">
-        <v>4</v>
-      </c>
-      <c r="D24" s="3">
-        <v>3</v>
-      </c>
-      <c r="E24" s="3">
-        <v>6</v>
-      </c>
       <c r="F24" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G24" s="5"/>
     </row>
@@ -1665,19 +1608,19 @@
         <v>27</v>
       </c>
       <c r="B25" s="3">
+        <v>5</v>
+      </c>
+      <c r="C25" s="3">
         <v>6</v>
       </c>
-      <c r="C25" s="3">
+      <c r="D25" s="3">
         <v>2</v>
       </c>
-      <c r="D25" s="3">
-        <v>3</v>
-      </c>
       <c r="E25" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F25" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G25" s="5"/>
     </row>
@@ -1686,19 +1629,19 @@
         <v>28</v>
       </c>
       <c r="B26" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C26" s="3">
         <v>5</v>
       </c>
       <c r="D26" s="3">
+        <v>6</v>
+      </c>
+      <c r="E26" s="3">
         <v>4</v>
       </c>
-      <c r="E26" s="3">
-        <v>3</v>
-      </c>
       <c r="F26" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G26" s="5"/>
     </row>
@@ -1707,16 +1650,16 @@
         <v>29</v>
       </c>
       <c r="B27" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C27" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D27" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E27" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F27" s="3">
         <v>5</v>
@@ -1728,19 +1671,19 @@
         <v>30</v>
       </c>
       <c r="B28" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C28" s="3">
+        <v>5</v>
+      </c>
+      <c r="D28" s="3">
+        <v>4</v>
+      </c>
+      <c r="E28" s="3">
         <v>2</v>
       </c>
-      <c r="D28" s="3">
-        <v>5</v>
-      </c>
-      <c r="E28" s="3">
-        <v>3</v>
-      </c>
       <c r="F28" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G28" s="5"/>
     </row>
@@ -1862,7 +1805,7 @@
         <v>47</v>
       </c>
       <c r="D13" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -1877,7 +1820,7 @@
         <v>49</v>
       </c>
       <c r="D14" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E14" s="3"/>
     </row>
@@ -1892,7 +1835,7 @@
         <v>51</v>
       </c>
       <c r="D15" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E15" s="3"/>
     </row>
@@ -1907,7 +1850,7 @@
         <v>53</v>
       </c>
       <c r="D16" s="3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E16" s="3"/>
     </row>
@@ -1922,7 +1865,7 @@
         <v>55</v>
       </c>
       <c r="D17" s="3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E17" s="3"/>
     </row>
@@ -2054,7 +1997,7 @@
         <v>66</v>
       </c>
       <c r="C15" s="3">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D15" s="3"/>
     </row>
@@ -2066,7 +2009,7 @@
         <v>68</v>
       </c>
       <c r="C16" s="3">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D16" s="3"/>
     </row>
@@ -2078,7 +2021,7 @@
         <v>70</v>
       </c>
       <c r="C17" s="3">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="D17" s="3"/>
     </row>
@@ -2090,7 +2033,7 @@
         <v>72</v>
       </c>
       <c r="C18" s="3">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="D18" s="3"/>
     </row>
@@ -2102,7 +2045,7 @@
         <v>74</v>
       </c>
       <c r="C19" s="3">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="D19" s="3"/>
     </row>
@@ -2150,7 +2093,7 @@
         <v>77</v>
       </c>
       <c r="C24" s="3">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D24" s="3"/>
     </row>
@@ -2162,7 +2105,7 @@
         <v>78</v>
       </c>
       <c r="C25" s="3">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="D25" s="3"/>
     </row>
@@ -2174,7 +2117,7 @@
         <v>79</v>
       </c>
       <c r="C26" s="3">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="D26" s="3"/>
     </row>
@@ -2186,7 +2129,7 @@
         <v>80</v>
       </c>
       <c r="C27" s="3">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D27" s="3"/>
     </row>
@@ -2198,7 +2141,7 @@
         <v>81</v>
       </c>
       <c r="C28" s="3">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D28" s="3"/>
     </row>
@@ -2246,7 +2189,7 @@
         <v>84</v>
       </c>
       <c r="C33" s="3">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D33" s="3"/>
     </row>
@@ -2255,10 +2198,10 @@
         <v>67</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="C34" s="3">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="D34" s="3"/>
     </row>
@@ -2267,10 +2210,10 @@
         <v>69</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C35" s="3">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D35" s="3"/>
     </row>
@@ -2279,10 +2222,10 @@
         <v>71</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C36" s="3">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D36" s="3"/>
     </row>
@@ -2291,22 +2234,22 @@
         <v>73</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C37" s="3">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D37" s="3"/>
     </row>
     <row r="38" spans="1:4">
       <c r="C38" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D38" s="6"/>
     </row>
     <row r="40" spans="1:4">
       <c r="C40" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D40" s="7"/>
     </row>
@@ -2328,10 +2271,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A21" sqref="A21:L21"/>
+      <selection activeCell="A18" sqref="A18:L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2352,53 +2295,53 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>19</v>
@@ -2410,7 +2353,7 @@
         <v>22</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H11" s="10" t="s">
         <v>24</v>
@@ -2419,40 +2362,40 @@
         <v>20</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D12" s="3">
+        <v>6</v>
+      </c>
+      <c r="E12" s="3">
+        <v>3</v>
+      </c>
+      <c r="F12" s="3">
+        <v>6</v>
+      </c>
+      <c r="G12" s="3">
         <v>5</v>
-      </c>
-      <c r="E12" s="3">
-        <v>6</v>
-      </c>
-      <c r="F12" s="3">
-        <v>4</v>
-      </c>
-      <c r="G12" s="3">
-        <v>6</v>
       </c>
       <c r="H12" s="3">
         <v>5</v>
       </c>
       <c r="I12" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J12" s="3">
         <v>6</v>
@@ -2463,31 +2406,31 @@
     <row r="13" spans="1:12">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D13" s="3">
+        <v>3</v>
+      </c>
+      <c r="E13" s="3">
+        <v>3</v>
+      </c>
+      <c r="F13" s="3">
+        <v>3</v>
+      </c>
+      <c r="G13" s="3">
+        <v>2</v>
+      </c>
+      <c r="H13" s="3">
         <v>6</v>
       </c>
-      <c r="E13" s="3">
-        <v>5</v>
-      </c>
-      <c r="F13" s="3">
-        <v>2</v>
-      </c>
-      <c r="G13" s="3">
-        <v>6</v>
-      </c>
-      <c r="H13" s="3">
-        <v>5</v>
-      </c>
       <c r="I13" s="3">
+        <v>4</v>
+      </c>
+      <c r="J13" s="3">
         <v>3</v>
-      </c>
-      <c r="J13" s="3">
-        <v>2</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -2495,28 +2438,28 @@
     <row r="14" spans="1:12">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>110</v>
       </c>
       <c r="D14" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E14" s="3">
+        <v>6</v>
+      </c>
+      <c r="F14" s="3">
         <v>3</v>
       </c>
-      <c r="F14" s="3">
-        <v>5</v>
-      </c>
       <c r="G14" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H14" s="3">
         <v>2</v>
       </c>
       <c r="I14" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J14" s="3">
         <v>4</v>
@@ -2539,19 +2482,19 @@
         <v>5</v>
       </c>
       <c r="F15" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G15" s="3">
+        <v>6</v>
+      </c>
+      <c r="H15" s="3">
         <v>5</v>
       </c>
-      <c r="H15" s="3">
-        <v>2</v>
-      </c>
       <c r="I15" s="3">
+        <v>5</v>
+      </c>
+      <c r="J15" s="3">
         <v>3</v>
-      </c>
-      <c r="J15" s="3">
-        <v>2</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -2559,168 +2502,72 @@
     <row r="16" spans="1:12">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D16" s="3">
+        <v>6</v>
+      </c>
+      <c r="E16" s="3">
+        <v>5</v>
+      </c>
+      <c r="F16" s="3">
         <v>2</v>
       </c>
-      <c r="E16" s="3">
+      <c r="G16" s="3">
+        <v>4</v>
+      </c>
+      <c r="H16" s="3">
+        <v>4</v>
+      </c>
+      <c r="I16" s="3">
+        <v>4</v>
+      </c>
+      <c r="J16" s="3">
         <v>3</v>
-      </c>
-      <c r="F16" s="3">
-        <v>4</v>
-      </c>
-      <c r="G16" s="3">
-        <v>6</v>
-      </c>
-      <c r="H16" s="3">
-        <v>6</v>
-      </c>
-      <c r="I16" s="3">
-        <v>2</v>
-      </c>
-      <c r="J16" s="3">
-        <v>2</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D17" s="3">
-        <v>2</v>
-      </c>
-      <c r="E17" s="3">
-        <v>2</v>
-      </c>
-      <c r="F17" s="3">
-        <v>5</v>
-      </c>
-      <c r="G17" s="3">
-        <v>2</v>
-      </c>
-      <c r="H17" s="3">
-        <v>5</v>
-      </c>
-      <c r="I17" s="3">
-        <v>2</v>
-      </c>
-      <c r="J17" s="3">
-        <v>6</v>
-      </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
+      <c r="A17" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="A18" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="D18" s="3">
-        <v>3</v>
-      </c>
-      <c r="E18" s="3">
-        <v>4</v>
-      </c>
-      <c r="F18" s="3">
-        <v>3</v>
-      </c>
-      <c r="G18" s="3">
-        <v>4</v>
-      </c>
-      <c r="H18" s="3">
-        <v>4</v>
-      </c>
-      <c r="I18" s="3">
-        <v>5</v>
-      </c>
-      <c r="J18" s="3">
-        <v>4</v>
-      </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D19" s="3">
-        <v>4</v>
-      </c>
-      <c r="E19" s="3">
-        <v>3</v>
-      </c>
-      <c r="F19" s="3">
-        <v>6</v>
-      </c>
-      <c r="G19" s="3">
-        <v>6</v>
-      </c>
-      <c r="H19" s="3">
-        <v>4</v>
-      </c>
-      <c r="I19" s="3">
-        <v>3</v>
-      </c>
-      <c r="J19" s="3">
-        <v>5</v>
-      </c>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="D21:L21"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="D18:L18"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2733,10 +2580,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A30" sqref="A30:B32"/>
+      <selection activeCell="A29" sqref="A29:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2748,7 +2595,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2758,243 +2605,232 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="12" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>162</v>
+        <v>17</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="13" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B29" s="14" t="s">
         <v>173</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="13" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>180</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -3012,10 +2848,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A48" sqref="A48:B52"/>
+      <selection activeCell="A44" sqref="A44:B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3031,7 +2867,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="9" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3041,75 +2877,75 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="12" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3117,22 +2953,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3140,22 +2976,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>207</v>
-      </c>
       <c r="E17" s="3" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3163,22 +2999,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3186,22 +3022,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>215</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3209,22 +3045,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3232,22 +3068,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3255,22 +3091,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>231</v>
+        <v>193</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3278,22 +3114,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3301,22 +3137,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3324,22 +3160,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>243</v>
+        <v>199</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3347,22 +3183,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3370,22 +3206,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="C27" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>253</v>
-      </c>
       <c r="G27" s="3" t="s">
-        <v>247</v>
+        <v>203</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3393,22 +3229,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C28" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>255</v>
-      </c>
       <c r="F28" s="3" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3416,22 +3252,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>220</v>
+        <v>254</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3439,22 +3275,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>262</v>
+        <v>220</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3462,22 +3298,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G31" s="3" t="s">
         <v>215</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3485,22 +3321,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>257</v>
+        <v>204</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3508,22 +3344,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>257</v>
+        <v>210</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3531,22 +3367,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>273</v>
+        <v>228</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>214</v>
+        <v>269</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3554,22 +3390,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>257</v>
+        <v>192</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>274</v>
+        <v>221</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3577,22 +3413,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>256</v>
+        <v>208</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3600,22 +3436,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>285</v>
+        <v>196</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3623,22 +3459,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>289</v>
+        <v>224</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3646,22 +3482,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>210</v>
+        <v>281</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>220</v>
+        <v>254</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3669,159 +3505,67 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>248</v>
+        <v>285</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>229</v>
+        <v>263</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="3">
-        <v>26</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="3">
-        <v>27</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="3">
-        <v>28</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>214</v>
+      <c r="A43" s="13" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="3">
-        <v>29</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>306</v>
+      <c r="A44" t="s">
+        <v>288</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>289</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>290</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="13" t="s">
-        <v>177</v>
+      <c r="A47" t="s">
+        <v>291</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" t="s">
-        <v>308</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" t="s">
-        <v>309</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" t="s">
-        <v>310</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" t="s">
-        <v>311</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/excel/collective/zestawy_dla_uczniow/zestaw_008.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_008.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="202">
   <si>
     <t>ZESTAW ZADAŃ NR 8 - CZĘŚĆ 1</t>
   </si>
@@ -118,21 +118,6 @@
     <t>ŚREDNIA UCZNIA:</t>
   </si>
   <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(B17:B28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(C17:C28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(D17:D28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(E17:E28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(F17:F28);".";",")</t>
-  </si>
-  <si>
     <t>ZESTAW ZADAŃ NR 8 - CZĘŚĆ 2: ZAKUPY</t>
   </si>
   <si>
@@ -163,39 +148,21 @@
     <t>Pędzelek</t>
   </si>
   <si>
-    <t>6,30</t>
-  </si>
-  <si>
     <t>Zeszyt 60 kartek</t>
   </si>
   <si>
-    <t>4,30</t>
-  </si>
-  <si>
     <t>Blok rysunkowy A4</t>
   </si>
   <si>
-    <t>6,70</t>
-  </si>
-  <si>
     <t>Temperówka</t>
   </si>
   <si>
-    <t>2,90</t>
-  </si>
-  <si>
     <t>Gumka do mazania</t>
   </si>
   <si>
-    <t>1,50</t>
-  </si>
-  <si>
     <t>Farby plakatowe 12 kolorów</t>
   </si>
   <si>
-    <t>15,50</t>
-  </si>
-  <si>
     <t>SUMA:</t>
   </si>
   <si>
@@ -220,75 +187,30 @@
     <t>Zeszyt</t>
   </si>
   <si>
-    <t>8,63</t>
-  </si>
-  <si>
     <t>Ołówek</t>
   </si>
   <si>
-    <t>8,04</t>
-  </si>
-  <si>
     <t>Długopis</t>
   </si>
   <si>
-    <t>16,53</t>
-  </si>
-  <si>
     <t>Linijka</t>
   </si>
   <si>
-    <t>19,65</t>
-  </si>
-  <si>
     <t>Gumka</t>
   </si>
   <si>
-    <t>16,74</t>
-  </si>
-  <si>
     <t>Razem Styczeń:</t>
   </si>
   <si>
     <t>Luty:</t>
   </si>
   <si>
-    <t>1,77</t>
-  </si>
-  <si>
-    <t>18,15</t>
-  </si>
-  <si>
-    <t>18,51</t>
-  </si>
-  <si>
-    <t>26,67</t>
-  </si>
-  <si>
-    <t>11,12</t>
-  </si>
-  <si>
     <t>Razem Luty:</t>
   </si>
   <si>
     <t>Marzec:</t>
   </si>
   <si>
-    <t>7,41</t>
-  </si>
-  <si>
-    <t>11,41</t>
-  </si>
-  <si>
-    <t>28,65</t>
-  </si>
-  <si>
-    <t>2,99</t>
-  </si>
-  <si>
-    <t>14,46</t>
-  </si>
-  <si>
     <t>Razem Marzec:</t>
   </si>
   <si>
@@ -307,7 +229,7 @@
     <t>2. Uzupełnij kolumnę LP (kolejne numery).</t>
   </si>
   <si>
-    <t>3. Oblicz średnią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
+    <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
   </si>
   <si>
     <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
@@ -406,129 +328,84 @@
     <t>01.07.1999</t>
   </si>
   <si>
-    <t>13 078,00 zł</t>
-  </si>
-  <si>
     <t>Zuzanna Borkowska</t>
   </si>
   <si>
     <t>28.03.2005</t>
   </si>
   <si>
-    <t>8 229,00 zł</t>
-  </si>
-  <si>
     <t>Maja Zawadzka</t>
   </si>
   <si>
     <t>15.04.1999</t>
   </si>
   <si>
-    <t>9 412,00 zł</t>
-  </si>
-  <si>
     <t>Kacper Kaczmarek</t>
   </si>
   <si>
     <t>10.04.1975</t>
   </si>
   <si>
-    <t>9 044,00 zł</t>
-  </si>
-  <si>
     <t>Kacper Kwiatkowski</t>
   </si>
   <si>
     <t>02.04.1987</t>
   </si>
   <si>
-    <t>4 159,00 zł</t>
-  </si>
-  <si>
     <t>Emilia Lis</t>
   </si>
   <si>
     <t>18.06.2003</t>
   </si>
   <si>
-    <t>11 762,00 zł</t>
-  </si>
-  <si>
     <t>28.12.1981</t>
   </si>
   <si>
-    <t>14 659,00 zł</t>
-  </si>
-  <si>
     <t>Julia Górska</t>
   </si>
   <si>
     <t>08.12.1977</t>
   </si>
   <si>
-    <t>9 735,00 zł</t>
-  </si>
-  <si>
     <t>Jan Krawczyk</t>
   </si>
   <si>
     <t>12.09.1987</t>
   </si>
   <si>
-    <t>13 457,00 zł</t>
-  </si>
-  <si>
     <t>Kacper Mazur</t>
   </si>
   <si>
     <t>03.08.1976</t>
   </si>
   <si>
-    <t>11 253,00 zł</t>
-  </si>
-  <si>
     <t>Emilia Wilk</t>
   </si>
   <si>
     <t>17.08.1988</t>
   </si>
   <si>
-    <t>12 282,00 zł</t>
-  </si>
-  <si>
     <t>26.12.2001</t>
   </si>
   <si>
-    <t>2 683,00 zł</t>
-  </si>
-  <si>
     <t>Wojciech Kwiatkowski</t>
   </si>
   <si>
     <t>26.04.1975</t>
   </si>
   <si>
-    <t>14 253,00 zł</t>
-  </si>
-  <si>
     <t>Amelia Urbaniak</t>
   </si>
   <si>
     <t>05.01.1998</t>
   </si>
   <si>
-    <t>4 082,00 zł</t>
-  </si>
-  <si>
     <t>Szymon Lewandowski</t>
   </si>
   <si>
     <t>07.04.1976</t>
   </si>
   <si>
-    <t>11 445,00 zł</t>
-  </si>
-  <si>
     <t>OBLICZENIA:</t>
   </si>
   <si>
@@ -541,9 +418,6 @@
     <t>Najmniejsze zarobki:</t>
   </si>
   <si>
-    <t>=...</t>
-  </si>
-  <si>
     <t>ZADANIE 6 - ANALIZA SPRZEDAŻY</t>
   </si>
   <si>
@@ -604,12 +478,6 @@
     <t>Słuchawki bezprzewodowe</t>
   </si>
   <si>
-    <t>966,00 zł</t>
-  </si>
-  <si>
-    <t>1 130,00 zł</t>
-  </si>
-  <si>
     <t>Michał Jankowski</t>
   </si>
   <si>
@@ -622,12 +490,6 @@
     <t>Karta graficzna RTX</t>
   </si>
   <si>
-    <t>1 185,00 zł</t>
-  </si>
-  <si>
-    <t>1 647,00 zł</t>
-  </si>
-  <si>
     <t>Barbara Kozłowska</t>
   </si>
   <si>
@@ -640,12 +502,6 @@
     <t>Płyta główna</t>
   </si>
   <si>
-    <t>562,00 zł</t>
-  </si>
-  <si>
-    <t>663,00 zł</t>
-  </si>
-  <si>
     <t>Katarzyna Mazur</t>
   </si>
   <si>
@@ -658,12 +514,6 @@
     <t>Odtwarzacz DVD</t>
   </si>
   <si>
-    <t>1 011,00 zł</t>
-  </si>
-  <si>
-    <t>1 132,00 zł</t>
-  </si>
-  <si>
     <t>Anna Nowak</t>
   </si>
   <si>
@@ -673,12 +523,6 @@
     <t>Router Wi-Fi 6</t>
   </si>
   <si>
-    <t>762,00 zł</t>
-  </si>
-  <si>
-    <t>953,00 zł</t>
-  </si>
-  <si>
     <t>Marcin Zieliński</t>
   </si>
   <si>
@@ -688,57 +532,27 @@
     <t>Laptop Gaming i7</t>
   </si>
   <si>
-    <t>1 349,00 zł</t>
-  </si>
-  <si>
-    <t>1 781,00 zł</t>
-  </si>
-  <si>
     <t>Piotr Wiśniewski</t>
   </si>
   <si>
     <t>lubuskie</t>
   </si>
   <si>
-    <t>693,00 zł</t>
-  </si>
-  <si>
-    <t>894,00 zł</t>
-  </si>
-  <si>
     <t>Paweł Kwiatkowski</t>
   </si>
   <si>
     <t>styczeń</t>
   </si>
   <si>
-    <t>981,00 zł</t>
-  </si>
-  <si>
-    <t>1 207,00 zł</t>
-  </si>
-  <si>
     <t>Agnieszka Wojciechowska</t>
   </si>
   <si>
     <t>Smartphone 5G 128GB</t>
   </si>
   <si>
-    <t>753,00 zł</t>
-  </si>
-  <si>
-    <t>1 032,00 zł</t>
-  </si>
-  <si>
     <t>świętokrzyskie</t>
   </si>
   <si>
-    <t>1 371,00 zł</t>
-  </si>
-  <si>
-    <t>1 700,00 zł</t>
-  </si>
-  <si>
     <t>Magdalena Szymańska</t>
   </si>
   <si>
@@ -748,27 +562,12 @@
     <t>Kamera internetowa</t>
   </si>
   <si>
-    <t>1 380,00 zł</t>
-  </si>
-  <si>
-    <t>1 932,00 zł</t>
-  </si>
-  <si>
     <t>Monika Krawczyk</t>
   </si>
   <si>
-    <t>689,00 zł</t>
-  </si>
-  <si>
-    <t>758,00 zł</t>
-  </si>
-  <si>
     <t>Mysz gamingowa</t>
   </si>
   <si>
-    <t>1 767,00 zł</t>
-  </si>
-  <si>
     <t>warmińsko-mazurskie</t>
   </si>
   <si>
@@ -778,112 +577,40 @@
     <t>Zasilacz 650W</t>
   </si>
   <si>
-    <t>1 264,00 zł</t>
-  </si>
-  <si>
-    <t>1 631,00 zł</t>
-  </si>
-  <si>
     <t>małopolskie</t>
   </si>
   <si>
-    <t>1 114,00 zł</t>
-  </si>
-  <si>
-    <t>1 281,00 zł</t>
-  </si>
-  <si>
     <t>Powerbank 20000mAh</t>
   </si>
   <si>
-    <t>579,00 zł</t>
-  </si>
-  <si>
-    <t>677,00 zł</t>
-  </si>
-  <si>
     <t>Głośnik Bluetooth</t>
   </si>
   <si>
-    <t>1 038,00 zł</t>
-  </si>
-  <si>
-    <t>1 360,00 zł</t>
-  </si>
-  <si>
     <t>Krzysztof Lewandowski</t>
   </si>
   <si>
-    <t>1 446,00 zł</t>
-  </si>
-  <si>
-    <t>1 981,00 zł</t>
-  </si>
-  <si>
     <t>Drukarka laserowa</t>
   </si>
   <si>
-    <t>1 222,00 zł</t>
-  </si>
-  <si>
-    <t>1 662,00 zł</t>
-  </si>
-  <si>
     <t>wielkopolskie</t>
   </si>
   <si>
-    <t>1 170,00 zł</t>
-  </si>
-  <si>
-    <t>1 439,00 zł</t>
-  </si>
-  <si>
     <t>Maria Dąbrowska</t>
   </si>
   <si>
     <t>Procesor i5</t>
   </si>
   <si>
-    <t>1 077,00 zł</t>
-  </si>
-  <si>
-    <t>1 195,00 zł</t>
-  </si>
-  <si>
-    <t>1 428,00 zł</t>
-  </si>
-  <si>
-    <t>1 871,00 zł</t>
-  </si>
-  <si>
     <t>Obudowa gamingowa</t>
   </si>
   <si>
-    <t>1 325,00 zł</t>
-  </si>
-  <si>
-    <t>1 762,00 zł</t>
-  </si>
-  <si>
     <t>Tablet 10"</t>
   </si>
   <si>
-    <t>1 065,00 zł</t>
-  </si>
-  <si>
-    <t>1 363,00 zł</t>
-  </si>
-  <si>
     <t>Jan Kowalski</t>
   </si>
   <si>
     <t>Smartwatch</t>
-  </si>
-  <si>
-    <t>1 250,00 zł</t>
-  </si>
-  <si>
-    <t>1 688,00 zł</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -905,7 +632,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00&quot; zł&quot;"/>
+  </numFmts>
   <fonts count="5">
     <font>
       <b val="0"/>
@@ -962,14 +691,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFD9EAD3"/>
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFFF2CC"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
     <fill>
@@ -980,8 +709,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -1012,30 +741,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="5" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1338,7 +1068,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="A16" sqref="A16:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1413,25 +1143,25 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1454,7 +1184,7 @@
       <c r="F17" s="3">
         <v>4</v>
       </c>
-      <c r="G17" s="5"/>
+      <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
@@ -1475,7 +1205,7 @@
       <c r="F18" s="3">
         <v>5</v>
       </c>
-      <c r="G18" s="5"/>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
@@ -1496,7 +1226,7 @@
       <c r="F19" s="3">
         <v>4</v>
       </c>
-      <c r="G19" s="5"/>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="3" t="s">
@@ -1517,7 +1247,7 @@
       <c r="F20" s="3">
         <v>6</v>
       </c>
-      <c r="G20" s="5"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="3" t="s">
@@ -1538,7 +1268,7 @@
       <c r="F21" s="3">
         <v>6</v>
       </c>
-      <c r="G21" s="5"/>
+      <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="3" t="s">
@@ -1559,7 +1289,7 @@
       <c r="F22" s="3">
         <v>4</v>
       </c>
-      <c r="G22" s="5"/>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="3" t="s">
@@ -1580,7 +1310,7 @@
       <c r="F23" s="3">
         <v>5</v>
       </c>
-      <c r="G23" s="5"/>
+      <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="3" t="s">
@@ -1601,7 +1331,7 @@
       <c r="F24" s="3">
         <v>2</v>
       </c>
-      <c r="G24" s="5"/>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="3" t="s">
@@ -1622,7 +1352,7 @@
       <c r="F25" s="3">
         <v>6</v>
       </c>
-      <c r="G25" s="5"/>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="3" t="s">
@@ -1643,7 +1373,7 @@
       <c r="F26" s="3">
         <v>5</v>
       </c>
-      <c r="G26" s="5"/>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="3" t="s">
@@ -1664,7 +1394,7 @@
       <c r="F27" s="3">
         <v>5</v>
       </c>
-      <c r="G27" s="5"/>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="3" t="s">
@@ -1685,27 +1415,17 @@
       <c r="F28" s="3">
         <v>4</v>
       </c>
-      <c r="G28" s="5"/>
+      <c r="G28" s="4"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1739,7 +1459,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1759,7 +1479,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1769,29 +1489,29 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1799,99 +1519,99 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="C13" s="7">
+        <v>6.3</v>
       </c>
       <c r="D13" s="3">
         <v>1</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
+      </c>
+      <c r="C14" s="7">
+        <v>4.3</v>
       </c>
       <c r="D14" s="3">
         <v>1</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="C15" s="7">
+        <v>6.7</v>
       </c>
       <c r="D15" s="3">
         <v>7</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
+      </c>
+      <c r="C16" s="7">
+        <v>2.9</v>
       </c>
       <c r="D16" s="3">
         <v>6</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1.5</v>
       </c>
       <c r="D17" s="3">
         <v>8</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>57</v>
+        <v>46</v>
+      </c>
+      <c r="C18" s="7">
+        <v>15.5</v>
       </c>
       <c r="D18" s="3">
         <v>5</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="E19" s="8"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1924,7 +1644,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1949,113 +1669,113 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="8" t="s">
-        <v>64</v>
+      <c r="A13" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>45</v>
+      <c r="A14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
+      </c>
+      <c r="B15" s="7">
+        <v>8.63</v>
       </c>
       <c r="C15" s="3">
         <v>18</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
+      </c>
+      <c r="B16" s="7">
+        <v>8.039999999999999</v>
       </c>
       <c r="C16" s="3">
         <v>10</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>70</v>
+        <v>56</v>
+      </c>
+      <c r="B17" s="7">
+        <v>16.53</v>
       </c>
       <c r="C17" s="3">
         <v>33</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
+      </c>
+      <c r="B18" s="7">
+        <v>19.65</v>
       </c>
       <c r="C18" s="3">
         <v>14</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>74</v>
+        <v>58</v>
+      </c>
+      <c r="B19" s="7">
+        <v>16.74</v>
       </c>
       <c r="C19" s="3">
         <v>41</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="8"/>
+      <c r="C20" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="14"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
@@ -2064,94 +1784,94 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="8" t="s">
-        <v>76</v>
+      <c r="A22" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>45</v>
+      <c r="A23" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>77</v>
+        <v>54</v>
+      </c>
+      <c r="B24" s="7">
+        <v>1.77</v>
       </c>
       <c r="C24" s="3">
         <v>13</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>78</v>
+        <v>55</v>
+      </c>
+      <c r="B25" s="7">
+        <v>18.15</v>
       </c>
       <c r="C25" s="3">
         <v>45</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>79</v>
+        <v>56</v>
+      </c>
+      <c r="B26" s="7">
+        <v>18.51</v>
       </c>
       <c r="C26" s="3">
         <v>46</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>80</v>
+        <v>57</v>
+      </c>
+      <c r="B27" s="7">
+        <v>26.67</v>
       </c>
       <c r="C27" s="3">
         <v>27</v>
       </c>
-      <c r="D27" s="3"/>
+      <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>81</v>
+        <v>58</v>
+      </c>
+      <c r="B28" s="7">
+        <v>11.12</v>
       </c>
       <c r="C28" s="3">
         <v>32</v>
       </c>
-      <c r="D28" s="3"/>
+      <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="8"/>
+      <c r="C29" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="14"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
@@ -2160,98 +1880,98 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="8" t="s">
-        <v>83</v>
+      <c r="A31" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>45</v>
+      <c r="A32" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>84</v>
+        <v>54</v>
+      </c>
+      <c r="B33" s="7">
+        <v>7.41</v>
       </c>
       <c r="C33" s="3">
         <v>44</v>
       </c>
-      <c r="D33" s="3"/>
+      <c r="D33" s="8"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
+      </c>
+      <c r="B34" s="7">
+        <v>11.41</v>
       </c>
       <c r="C34" s="3">
         <v>38</v>
       </c>
-      <c r="D34" s="3"/>
+      <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>86</v>
+        <v>56</v>
+      </c>
+      <c r="B35" s="7">
+        <v>28.65</v>
       </c>
       <c r="C35" s="3">
         <v>48</v>
       </c>
-      <c r="D35" s="3"/>
+      <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>87</v>
+        <v>57</v>
+      </c>
+      <c r="B36" s="7">
+        <v>2.99</v>
       </c>
       <c r="C36" s="3">
         <v>18</v>
       </c>
-      <c r="D36" s="3"/>
+      <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>88</v>
+        <v>58</v>
+      </c>
+      <c r="B37" s="7">
+        <v>14.46</v>
       </c>
       <c r="C37" s="3">
         <v>16</v>
       </c>
-      <c r="D37" s="3"/>
+      <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="C38" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D38" s="6"/>
+      <c r="C38" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="11"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="C40" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D40" s="7"/>
+      <c r="C40" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="12"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2274,7 +1994,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A18" sqref="A18:L18"/>
+      <selection activeCell="A11" sqref="A11:L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2294,90 +2014,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="9" t="s">
-        <v>91</v>
+      <c r="A1" s="15" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="A11" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="H11" s="10" t="s">
+      <c r="G11" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>105</v>
+      <c r="J11" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="3"/>
+      <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="D12" s="3">
         <v>6</v>
@@ -2400,16 +2120,16 @@
       <c r="J12" s="3">
         <v>6</v>
       </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="3"/>
+      <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="D13" s="3">
         <v>3</v>
@@ -2432,16 +2152,16 @@
       <c r="J13" s="3">
         <v>3</v>
       </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="3"/>
+      <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="D14" s="3">
         <v>4</v>
@@ -2464,16 +2184,16 @@
       <c r="J14" s="3">
         <v>4</v>
       </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="3"/>
+      <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="D15" s="3">
         <v>2</v>
@@ -2496,16 +2216,16 @@
       <c r="J15" s="3">
         <v>3</v>
       </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="3"/>
+      <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="D16" s="3">
         <v>6</v>
@@ -2528,40 +2248,40 @@
       <c r="J16" s="3">
         <v>3</v>
       </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
+      <c r="A17" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
+      <c r="A18" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2594,170 +2314,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="9" t="s">
-        <v>117</v>
+      <c r="A1" s="15" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>125</v>
+      <c r="A10" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>128</v>
+        <v>101</v>
+      </c>
+      <c r="C11" s="7">
+        <v>13078</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>131</v>
+        <v>103</v>
+      </c>
+      <c r="C12" s="7">
+        <v>8229</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>134</v>
+        <v>105</v>
+      </c>
+      <c r="C13" s="7">
+        <v>9412</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>137</v>
+        <v>107</v>
+      </c>
+      <c r="C14" s="7">
+        <v>9044</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>140</v>
+        <v>109</v>
+      </c>
+      <c r="C15" s="7">
+        <v>4159</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>143</v>
+        <v>111</v>
+      </c>
+      <c r="C16" s="7">
+        <v>11762</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>145</v>
+        <v>112</v>
+      </c>
+      <c r="C17" s="7">
+        <v>14659</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>146</v>
+        <v>113</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>148</v>
+        <v>114</v>
+      </c>
+      <c r="C18" s="7">
+        <v>9735</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>149</v>
+        <v>115</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>151</v>
+        <v>116</v>
+      </c>
+      <c r="C19" s="7">
+        <v>13457</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>152</v>
+        <v>117</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>154</v>
+        <v>118</v>
+      </c>
+      <c r="C20" s="7">
+        <v>11253</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>155</v>
+        <v>119</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>157</v>
+        <v>120</v>
+      </c>
+      <c r="C21" s="7">
+        <v>12282</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2765,73 +2485,67 @@
         <v>17</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>159</v>
+        <v>121</v>
+      </c>
+      <c r="C22" s="7">
+        <v>2683</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>160</v>
+        <v>122</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>162</v>
+        <v>123</v>
+      </c>
+      <c r="C23" s="7">
+        <v>14253</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>163</v>
+        <v>124</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>165</v>
+        <v>125</v>
+      </c>
+      <c r="C24" s="7">
+        <v>4082</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>166</v>
+        <v>126</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>168</v>
+        <v>127</v>
+      </c>
+      <c r="C25" s="7">
+        <v>11445</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="13" t="s">
-        <v>169</v>
+      <c r="A28" s="17" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>170</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>173</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="B29" s="2"/>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>171</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>173</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="B30" s="6"/>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>172</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>173</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="B31" s="6"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2866,86 +2580,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="9" t="s">
-        <v>174</v>
+      <c r="A1" s="15" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>175</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>176</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>177</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>178</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>179</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>180</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>181</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>182</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>183</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>184</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>191</v>
+      <c r="A15" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2953,22 +2667,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>192</v>
+        <v>150</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>195</v>
+        <v>151</v>
+      </c>
+      <c r="D16" s="7">
+        <v>966</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1130</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>196</v>
+        <v>152</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>197</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2976,22 +2690,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>198</v>
+        <v>154</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>201</v>
+        <v>155</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1185</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1647</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>202</v>
+        <v>156</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>203</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2999,22 +2713,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>204</v>
+        <v>158</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>207</v>
+        <v>159</v>
+      </c>
+      <c r="D18" s="7">
+        <v>562</v>
+      </c>
+      <c r="E18" s="7">
+        <v>663</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>208</v>
+        <v>160</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>209</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3022,22 +2736,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>210</v>
+        <v>162</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>213</v>
+        <v>163</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1011</v>
+      </c>
+      <c r="E19" s="7">
+        <v>1132</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>214</v>
+        <v>164</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>215</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3045,22 +2759,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>210</v>
+        <v>162</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>218</v>
+        <v>166</v>
+      </c>
+      <c r="D20" s="7">
+        <v>762</v>
+      </c>
+      <c r="E20" s="7">
+        <v>953</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>219</v>
+        <v>167</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>220</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3068,22 +2782,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>198</v>
+        <v>154</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>223</v>
+        <v>169</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1349</v>
+      </c>
+      <c r="E21" s="7">
+        <v>1781</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>224</v>
+        <v>170</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>225</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3091,22 +2805,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>192</v>
+        <v>150</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>227</v>
+        <v>151</v>
+      </c>
+      <c r="D22" s="7">
+        <v>693</v>
+      </c>
+      <c r="E22" s="7">
+        <v>894</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>228</v>
+        <v>172</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>197</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3114,22 +2828,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>229</v>
+        <v>173</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>231</v>
+        <v>163</v>
+      </c>
+      <c r="D23" s="7">
+        <v>981</v>
+      </c>
+      <c r="E23" s="7">
+        <v>1207</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>232</v>
+        <v>174</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>225</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3137,22 +2851,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>210</v>
+        <v>162</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>235</v>
+        <v>175</v>
+      </c>
+      <c r="D24" s="7">
+        <v>753</v>
+      </c>
+      <c r="E24" s="7">
+        <v>1032</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>202</v>
+        <v>156</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>236</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3160,22 +2874,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>210</v>
+        <v>162</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>238</v>
+        <v>155</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1371</v>
+      </c>
+      <c r="E25" s="7">
+        <v>1700</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>239</v>
+        <v>177</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>240</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3183,22 +2897,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>192</v>
+        <v>150</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>243</v>
+        <v>179</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1380</v>
+      </c>
+      <c r="E26" s="7">
+        <v>1932</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>244</v>
+        <v>180</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>225</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3206,22 +2920,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>210</v>
+        <v>162</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>246</v>
+        <v>175</v>
+      </c>
+      <c r="D27" s="7">
+        <v>689</v>
+      </c>
+      <c r="E27" s="7">
+        <v>758</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>239</v>
+        <v>177</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>203</v>
+        <v>157</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3229,22 +2943,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>198</v>
+        <v>154</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>248</v>
+        <v>181</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1349</v>
+      </c>
+      <c r="E28" s="7">
+        <v>1767</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>239</v>
+        <v>177</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>249</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3252,22 +2966,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>250</v>
+        <v>183</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>253</v>
+        <v>184</v>
+      </c>
+      <c r="D29" s="7">
+        <v>1264</v>
+      </c>
+      <c r="E29" s="7">
+        <v>1631</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>232</v>
+        <v>174</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>254</v>
+        <v>185</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3275,22 +2989,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>204</v>
+        <v>158</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>256</v>
+        <v>181</v>
+      </c>
+      <c r="D30" s="7">
+        <v>1114</v>
+      </c>
+      <c r="E30" s="7">
+        <v>1281</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>224</v>
+        <v>170</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>220</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3298,22 +3012,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>250</v>
+        <v>183</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>259</v>
+        <v>186</v>
+      </c>
+      <c r="D31" s="7">
+        <v>579</v>
+      </c>
+      <c r="E31" s="7">
+        <v>677</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>228</v>
+        <v>172</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>215</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3321,22 +3035,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>204</v>
+        <v>158</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>262</v>
+        <v>187</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1038</v>
+      </c>
+      <c r="E32" s="7">
+        <v>1360</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>263</v>
+        <v>188</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>220</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3344,22 +3058,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>210</v>
+        <v>162</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>265</v>
+        <v>187</v>
+      </c>
+      <c r="D33" s="7">
+        <v>1446</v>
+      </c>
+      <c r="E33" s="7">
+        <v>1981</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>202</v>
+        <v>156</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>197</v>
+        <v>153</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3367,22 +3081,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>250</v>
+        <v>183</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>268</v>
+        <v>189</v>
+      </c>
+      <c r="D34" s="7">
+        <v>1222</v>
+      </c>
+      <c r="E34" s="7">
+        <v>1662</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>228</v>
+        <v>172</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>269</v>
+        <v>190</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3390,22 +3104,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>192</v>
+        <v>150</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>271</v>
+        <v>169</v>
+      </c>
+      <c r="D35" s="7">
+        <v>1170</v>
+      </c>
+      <c r="E35" s="7">
+        <v>1439</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>272</v>
+        <v>191</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>203</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3413,22 +3127,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>210</v>
+        <v>162</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>275</v>
+        <v>192</v>
+      </c>
+      <c r="D36" s="7">
+        <v>1077</v>
+      </c>
+      <c r="E36" s="7">
+        <v>1195</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>208</v>
+        <v>160</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>269</v>
+        <v>190</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3436,22 +3150,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>210</v>
+        <v>162</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>277</v>
+        <v>187</v>
+      </c>
+      <c r="D37" s="7">
+        <v>1428</v>
+      </c>
+      <c r="E37" s="7">
+        <v>1871</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>196</v>
+        <v>152</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>203</v>
+        <v>157</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3459,22 +3173,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>198</v>
+        <v>154</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>280</v>
+        <v>193</v>
+      </c>
+      <c r="D38" s="7">
+        <v>1325</v>
+      </c>
+      <c r="E38" s="7">
+        <v>1762</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>224</v>
+        <v>170</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>254</v>
+        <v>185</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3482,22 +3196,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>250</v>
+        <v>183</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>283</v>
+        <v>194</v>
+      </c>
+      <c r="D39" s="7">
+        <v>1065</v>
+      </c>
+      <c r="E39" s="7">
+        <v>1363</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>284</v>
+        <v>195</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>254</v>
+        <v>185</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3505,68 +3219,58 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>250</v>
+        <v>183</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>287</v>
+        <v>196</v>
+      </c>
+      <c r="D40" s="7">
+        <v>1250</v>
+      </c>
+      <c r="E40" s="7">
+        <v>1688</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>263</v>
+        <v>188</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>203</v>
+        <v>157</v>
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="13" t="s">
-        <v>169</v>
+      <c r="A43" s="17" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>288</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>173</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="B44" s="6"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>289</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>173</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="B45" s="6"/>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>290</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>173</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="B46" s="6"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>291</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>173</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="B47" s="6"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>292</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>173</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="B48" s="6"/>
     </row>
   </sheetData>
   <mergeCells>

--- a/excel/collective/zestawy_dla_uczniow/zestaw_008.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_008.xlsx
@@ -12,7 +12,8 @@
     <sheet name="Zadanie 3 - Sprzedaż" sheetId="3" r:id="rId6"/>
     <sheet name="Zadanie 4 - Średnie klasy" sheetId="4" r:id="rId7"/>
     <sheet name="Zadanie 5 - Dane osobowe" sheetId="5" r:id="rId8"/>
-    <sheet name="Zadanie 6 - Analiza" sheetId="6" r:id="rId9"/>
+    <sheet name="Zadanie 6 - Godziny pracy" sheetId="6" r:id="rId9"/>
+    <sheet name="Zadanie 7 - Analiza" sheetId="7" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="216">
   <si>
     <t>ZESTAW ZADAŃ NR 8 - CZĘŚĆ 1</t>
   </si>
@@ -61,19 +62,19 @@
     <t>Przedmiot</t>
   </si>
   <si>
-    <t>Zuzanna Maciejewska</t>
-  </si>
-  <si>
-    <t>Natalia Górska</t>
-  </si>
-  <si>
-    <t>Antoni Wójcik</t>
-  </si>
-  <si>
-    <t>Natalia Piekarska</t>
-  </si>
-  <si>
-    <t>Jakub Grabowski</t>
+    <t>Antoni Szymański</t>
+  </si>
+  <si>
+    <t>Adam Wojciechowski</t>
+  </si>
+  <si>
+    <t>Natalia Urbaniak</t>
+  </si>
+  <si>
+    <t>Kacper Kozłowski</t>
+  </si>
+  <si>
+    <t>Aleksander Lewandowski</t>
   </si>
   <si>
     <t>ŚREDNIA</t>
@@ -118,6 +119,9 @@
     <t>ŚREDNIA UCZNIA:</t>
   </si>
   <si>
+    <t>ŚREDNIA KLASY:</t>
+  </si>
+  <si>
     <t>ZESTAW ZADAŃ NR 8 - CZĘŚĆ 2: ZAKUPY</t>
   </si>
   <si>
@@ -145,24 +149,24 @@
     <t>Razem (zł)</t>
   </si>
   <si>
-    <t>Pędzelek</t>
-  </si>
-  <si>
-    <t>Zeszyt 60 kartek</t>
+    <t>Cyrkiel</t>
+  </si>
+  <si>
+    <t>Farby plakatowe 12 kolorów</t>
+  </si>
+  <si>
+    <t>Linijka 30 cm</t>
+  </si>
+  <si>
+    <t>Temperówka</t>
+  </si>
+  <si>
+    <t>Długopis niebieski</t>
   </si>
   <si>
     <t>Blok rysunkowy A4</t>
   </si>
   <si>
-    <t>Temperówka</t>
-  </si>
-  <si>
-    <t>Gumka do mazania</t>
-  </si>
-  <si>
-    <t>Farby plakatowe 12 kolorów</t>
-  </si>
-  <si>
     <t>SUMA:</t>
   </si>
   <si>
@@ -217,6 +221,9 @@
     <t>SUMA z 3 miesięcy:</t>
   </si>
   <si>
+    <t>Średnia z 3 miesięcy:</t>
+  </si>
+  <si>
     <t>ZADANIE 4: ŚREDNIE KLASY</t>
   </si>
   <si>
@@ -232,7 +239,7 @@
     <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
   </si>
   <si>
-    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
+    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,75, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
   </si>
   <si>
     <t>5. Oblicz średnią ocen dla każdego przedmiotu i wpisz w wierszu "Średnia przedmiotu:".</t>
@@ -259,34 +266,49 @@
     <t>Średnia ucznia</t>
   </si>
   <si>
-    <t>Czy pasek?</t>
-  </si>
-  <si>
-    <t>Wojciech</t>
-  </si>
-  <si>
-    <t>Wojciechowski</t>
+    <t>Czy śrecnia powyżej 4,75?</t>
+  </si>
+  <si>
+    <t>Maja</t>
+  </si>
+  <si>
+    <t>Górska</t>
   </si>
   <si>
     <t>Szymon</t>
   </si>
   <si>
-    <t>Kozłowski</t>
-  </si>
-  <si>
-    <t>Wiśniewski</t>
+    <t>Mazur</t>
+  </si>
+  <si>
+    <t>Aleksander</t>
+  </si>
+  <si>
+    <t>Piotrowski</t>
+  </si>
+  <si>
+    <t>Filip</t>
+  </si>
+  <si>
+    <t>Kowalski</t>
+  </si>
+  <si>
+    <t>Hanna</t>
+  </si>
+  <si>
+    <t>Czarnecka</t>
+  </si>
+  <si>
+    <t>Mikołaj</t>
+  </si>
+  <si>
+    <t>Dąbrowski</t>
   </si>
   <si>
     <t>Oliwia</t>
   </si>
   <si>
-    <t>Czarnecka</t>
-  </si>
-  <si>
-    <t>Julia</t>
-  </si>
-  <si>
-    <t>Kaźmierczak</t>
+    <t>Piekarska</t>
   </si>
   <si>
     <t>Średnia przedmiotu:</t>
@@ -322,103 +344,136 @@
     <t>Zarobki (zł)</t>
   </si>
   <si>
-    <t>Aleksander Jankowski</t>
-  </si>
-  <si>
-    <t>01.07.1999</t>
+    <t>Emilia Olszewska</t>
+  </si>
+  <si>
+    <t>Mikołaj Lewandowski</t>
+  </si>
+  <si>
+    <t>Mikołaj Woźniak</t>
+  </si>
+  <si>
+    <t>Oliwia Olszewska</t>
+  </si>
+  <si>
+    <t>Hanna Sikorska</t>
+  </si>
+  <si>
+    <t>Amelia Wilk</t>
+  </si>
+  <si>
+    <t>Amelia Lis</t>
+  </si>
+  <si>
+    <t>Szymon Kozłowski</t>
+  </si>
+  <si>
+    <t>Szymon Mazur</t>
+  </si>
+  <si>
+    <t>Natalia Rogalska</t>
+  </si>
+  <si>
+    <t>Filip Kowalczyk</t>
+  </si>
+  <si>
+    <t>Emilia Malinowska</t>
+  </si>
+  <si>
+    <t>Wojciech Kowalczyk</t>
+  </si>
+  <si>
+    <t>Lena Bednarska</t>
+  </si>
+  <si>
+    <t>Filip Kwiatkowski</t>
+  </si>
+  <si>
+    <t>Jakub Krawczyk</t>
+  </si>
+  <si>
+    <t>Natalia Czarnecka</t>
+  </si>
+  <si>
+    <t>OBLICZENIA:</t>
+  </si>
+  <si>
+    <t>Liczba osób urodzonych w 1998 roku:</t>
+  </si>
+  <si>
+    <t>Największe zarobki:</t>
+  </si>
+  <si>
+    <t>Najmniejsze zarobki:</t>
+  </si>
+  <si>
+    <t>ZADANIE 6 - DANE OSOBOWE I ILOŚĆ GODZIN PRACY</t>
+  </si>
+  <si>
+    <t>1. Oblicz ilość przepracowanych godzin dla każdej osoby</t>
+  </si>
+  <si>
+    <t>2. Podaj zarobki dla każdej osoby (stawka godzinowa × ilość przepracowanych godzin)</t>
+  </si>
+  <si>
+    <t>Stawka godzinowa (zł/h):</t>
+  </si>
+  <si>
+    <t>Ilość przepracowanych godzin</t>
+  </si>
+  <si>
+    <t>Antoni Wojciechowski</t>
+  </si>
+  <si>
+    <t>Jan Kwiatkowski</t>
+  </si>
+  <si>
+    <t>Lena Zawadzka</t>
+  </si>
+  <si>
+    <t>Filip Kowalski</t>
+  </si>
+  <si>
+    <t>Antoni Piotrowski</t>
+  </si>
+  <si>
+    <t>Anna Kubiak</t>
+  </si>
+  <si>
+    <t>Hanna Piekarska</t>
+  </si>
+  <si>
+    <t>Zuzanna Urbaniak</t>
+  </si>
+  <si>
+    <t>Julia Jaworska</t>
+  </si>
+  <si>
+    <t>Maja Górska</t>
+  </si>
+  <si>
+    <t>Jan Dąbrowski</t>
   </si>
   <si>
     <t>Zuzanna Borkowska</t>
   </si>
   <si>
-    <t>28.03.2005</t>
-  </si>
-  <si>
-    <t>Maja Zawadzka</t>
-  </si>
-  <si>
-    <t>15.04.1999</t>
-  </si>
-  <si>
-    <t>Kacper Kaczmarek</t>
-  </si>
-  <si>
-    <t>10.04.1975</t>
-  </si>
-  <si>
-    <t>Kacper Kwiatkowski</t>
-  </si>
-  <si>
-    <t>02.04.1987</t>
-  </si>
-  <si>
-    <t>Emilia Lis</t>
-  </si>
-  <si>
-    <t>18.06.2003</t>
-  </si>
-  <si>
-    <t>28.12.1981</t>
-  </si>
-  <si>
-    <t>Julia Górska</t>
-  </si>
-  <si>
-    <t>08.12.1977</t>
-  </si>
-  <si>
-    <t>Jan Krawczyk</t>
-  </si>
-  <si>
-    <t>12.09.1987</t>
-  </si>
-  <si>
-    <t>Kacper Mazur</t>
-  </si>
-  <si>
-    <t>03.08.1976</t>
+    <t>Adam Krawczyk</t>
+  </si>
+  <si>
+    <t>Oliwia Maciejewska</t>
   </si>
   <si>
     <t>Emilia Wilk</t>
   </si>
   <si>
-    <t>17.08.1988</t>
-  </si>
-  <si>
-    <t>26.12.2001</t>
-  </si>
-  <si>
-    <t>Wojciech Kwiatkowski</t>
-  </si>
-  <si>
-    <t>26.04.1975</t>
-  </si>
-  <si>
-    <t>Amelia Urbaniak</t>
-  </si>
-  <si>
-    <t>05.01.1998</t>
-  </si>
-  <si>
-    <t>Szymon Lewandowski</t>
-  </si>
-  <si>
-    <t>07.04.1976</t>
-  </si>
-  <si>
-    <t>OBLICZENIA:</t>
-  </si>
-  <si>
-    <t>Liczba osób urodzonych w 1998 roku:</t>
-  </si>
-  <si>
-    <t>Największe zarobki:</t>
-  </si>
-  <si>
-    <t>Najmniejsze zarobki:</t>
-  </si>
-  <si>
-    <t>ZADANIE 6 - ANALIZA SPRZEDAŻY</t>
+    <t>Emilia Kaźmierczak</t>
+  </si>
+  <si>
+    <t>Aleksander Grabowski</t>
+  </si>
+  <si>
+    <t>ZADANIE 7 - ANALIZA SPRZEDAŻY</t>
   </si>
   <si>
     <t>1. Rozbij kolumnę "Sprzedawca" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
@@ -472,145 +527,133 @@
     <t>Województwo</t>
   </si>
   <si>
+    <t>styczeń</t>
+  </si>
+  <si>
+    <t>Powerbank 20000mAh</t>
+  </si>
+  <si>
+    <t>Barbara Kozłowska</t>
+  </si>
+  <si>
+    <t>pomorskie</t>
+  </si>
+  <si>
+    <t>Klawiatura mechaniczna</t>
+  </si>
+  <si>
+    <t>Anna Nowak</t>
+  </si>
+  <si>
+    <t>świętokrzyskie</t>
+  </si>
+  <si>
+    <t>Tomasz Kamiński</t>
+  </si>
+  <si>
+    <t>kujawsko-pomorskie</t>
+  </si>
+  <si>
+    <t>maj</t>
+  </si>
+  <si>
+    <t>Jan Kowalski</t>
+  </si>
+  <si>
+    <t>opolskie</t>
+  </si>
+  <si>
+    <t>kwiecień</t>
+  </si>
+  <si>
+    <t>Procesor i5</t>
+  </si>
+  <si>
+    <t>mazowieckie</t>
+  </si>
+  <si>
+    <t>marzec</t>
+  </si>
+  <si>
+    <t>Marcin Zieliński</t>
+  </si>
+  <si>
+    <t>małopolskie</t>
+  </si>
+  <si>
+    <t>Płyta główna</t>
+  </si>
+  <si>
+    <t>Krzysztof Lewandowski</t>
+  </si>
+  <si>
+    <t>podkarpackie</t>
+  </si>
+  <si>
+    <t>czerwiec</t>
+  </si>
+  <si>
+    <t>Router Wi-Fi 6</t>
+  </si>
+  <si>
+    <t>Katarzyna Mazur</t>
+  </si>
+  <si>
+    <t>Kamera internetowa</t>
+  </si>
+  <si>
+    <t>Michał Jankowski</t>
+  </si>
+  <si>
     <t>luty</t>
   </si>
   <si>
+    <t>Dysk SSD 1TB</t>
+  </si>
+  <si>
+    <t>warmińsko-mazurskie</t>
+  </si>
+  <si>
+    <t>Smart TV 55"</t>
+  </si>
+  <si>
+    <t>Pamięć RAM 16GB</t>
+  </si>
+  <si>
+    <t>Agnieszka Wojciechowska</t>
+  </si>
+  <si>
+    <t>Ewa Kowalczyk</t>
+  </si>
+  <si>
+    <t>lubuskie</t>
+  </si>
+  <si>
+    <t>Mikrofon studyjny</t>
+  </si>
+  <si>
+    <t>podlaskie</t>
+  </si>
+  <si>
+    <t>Obudowa gamingowa</t>
+  </si>
+  <si>
+    <t>Głośnik Bluetooth</t>
+  </si>
+  <si>
+    <t>Piotr Wiśniewski</t>
+  </si>
+  <si>
+    <t>dolnośląskie</t>
+  </si>
+  <si>
     <t>Słuchawki bezprzewodowe</t>
   </si>
   <si>
-    <t>Michał Jankowski</t>
-  </si>
-  <si>
-    <t>podkarpackie</t>
-  </si>
-  <si>
-    <t>maj</t>
-  </si>
-  <si>
-    <t>Karta graficzna RTX</t>
-  </si>
-  <si>
-    <t>Barbara Kozłowska</t>
-  </si>
-  <si>
-    <t>kujawsko-pomorskie</t>
-  </si>
-  <si>
-    <t>kwiecień</t>
-  </si>
-  <si>
-    <t>Płyta główna</t>
-  </si>
-  <si>
-    <t>Katarzyna Mazur</t>
-  </si>
-  <si>
-    <t>lubelskie</t>
-  </si>
-  <si>
-    <t>marzec</t>
-  </si>
-  <si>
     <t>Odtwarzacz DVD</t>
   </si>
   <si>
-    <t>Anna Nowak</t>
-  </si>
-  <si>
-    <t>podlaskie</t>
-  </si>
-  <si>
-    <t>Router Wi-Fi 6</t>
-  </si>
-  <si>
-    <t>Marcin Zieliński</t>
-  </si>
-  <si>
-    <t>mazowieckie</t>
-  </si>
-  <si>
-    <t>Laptop Gaming i7</t>
-  </si>
-  <si>
-    <t>Piotr Wiśniewski</t>
-  </si>
-  <si>
-    <t>lubuskie</t>
-  </si>
-  <si>
-    <t>Paweł Kwiatkowski</t>
-  </si>
-  <si>
-    <t>styczeń</t>
-  </si>
-  <si>
-    <t>Agnieszka Wojciechowska</t>
-  </si>
-  <si>
-    <t>Smartphone 5G 128GB</t>
-  </si>
-  <si>
-    <t>świętokrzyskie</t>
-  </si>
-  <si>
     <t>Magdalena Szymańska</t>
-  </si>
-  <si>
-    <t>zachodniopomorskie</t>
-  </si>
-  <si>
-    <t>Kamera internetowa</t>
-  </si>
-  <si>
-    <t>Monika Krawczyk</t>
-  </si>
-  <si>
-    <t>Mysz gamingowa</t>
-  </si>
-  <si>
-    <t>warmińsko-mazurskie</t>
-  </si>
-  <si>
-    <t>czerwiec</t>
-  </si>
-  <si>
-    <t>Zasilacz 650W</t>
-  </si>
-  <si>
-    <t>małopolskie</t>
-  </si>
-  <si>
-    <t>Powerbank 20000mAh</t>
-  </si>
-  <si>
-    <t>Głośnik Bluetooth</t>
-  </si>
-  <si>
-    <t>Krzysztof Lewandowski</t>
-  </si>
-  <si>
-    <t>Drukarka laserowa</t>
-  </si>
-  <si>
-    <t>wielkopolskie</t>
-  </si>
-  <si>
-    <t>Maria Dąbrowska</t>
-  </si>
-  <si>
-    <t>Procesor i5</t>
-  </si>
-  <si>
-    <t>Obudowa gamingowa</t>
-  </si>
-  <si>
-    <t>Tablet 10"</t>
-  </si>
-  <si>
-    <t>Jan Kowalski</t>
-  </si>
-  <si>
-    <t>Smartwatch</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -682,7 +725,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -705,12 +748,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9EAD3"/>
         <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -741,7 +778,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -752,13 +789,12 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
@@ -1065,7 +1101,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A16" sqref="A16:G16"/>
@@ -1170,19 +1206,19 @@
         <v>19</v>
       </c>
       <c r="B17" s="3">
+        <v>5</v>
+      </c>
+      <c r="C17" s="3">
         <v>6</v>
       </c>
-      <c r="C17" s="3">
-        <v>4</v>
-      </c>
       <c r="D17" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E17" s="3">
         <v>2</v>
       </c>
       <c r="F17" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G17" s="4"/>
     </row>
@@ -1191,19 +1227,19 @@
         <v>20</v>
       </c>
       <c r="B18" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C18" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D18" s="3">
         <v>6</v>
       </c>
       <c r="E18" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F18" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G18" s="4"/>
     </row>
@@ -1212,19 +1248,19 @@
         <v>21</v>
       </c>
       <c r="B19" s="3">
+        <v>6</v>
+      </c>
+      <c r="C19" s="3">
+        <v>2</v>
+      </c>
+      <c r="D19" s="3">
+        <v>6</v>
+      </c>
+      <c r="E19" s="3">
+        <v>3</v>
+      </c>
+      <c r="F19" s="3">
         <v>5</v>
-      </c>
-      <c r="C19" s="3">
-        <v>6</v>
-      </c>
-      <c r="D19" s="3">
-        <v>5</v>
-      </c>
-      <c r="E19" s="3">
-        <v>4</v>
-      </c>
-      <c r="F19" s="3">
-        <v>4</v>
       </c>
       <c r="G19" s="4"/>
     </row>
@@ -1233,19 +1269,19 @@
         <v>22</v>
       </c>
       <c r="B20" s="3">
+        <v>3</v>
+      </c>
+      <c r="C20" s="3">
+        <v>6</v>
+      </c>
+      <c r="D20" s="3">
         <v>2</v>
       </c>
-      <c r="C20" s="3">
+      <c r="E20" s="3">
+        <v>4</v>
+      </c>
+      <c r="F20" s="3">
         <v>5</v>
-      </c>
-      <c r="D20" s="3">
-        <v>5</v>
-      </c>
-      <c r="E20" s="3">
-        <v>2</v>
-      </c>
-      <c r="F20" s="3">
-        <v>6</v>
       </c>
       <c r="G20" s="4"/>
     </row>
@@ -1254,13 +1290,13 @@
         <v>23</v>
       </c>
       <c r="B21" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C21" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D21" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E21" s="3">
         <v>3</v>
@@ -1275,19 +1311,19 @@
         <v>24</v>
       </c>
       <c r="B22" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C22" s="3">
+        <v>5</v>
+      </c>
+      <c r="D22" s="3">
+        <v>6</v>
+      </c>
+      <c r="E22" s="3">
+        <v>6</v>
+      </c>
+      <c r="F22" s="3">
         <v>3</v>
-      </c>
-      <c r="D22" s="3">
-        <v>2</v>
-      </c>
-      <c r="E22" s="3">
-        <v>2</v>
-      </c>
-      <c r="F22" s="3">
-        <v>4</v>
       </c>
       <c r="G22" s="4"/>
     </row>
@@ -1302,13 +1338,13 @@
         <v>5</v>
       </c>
       <c r="D23" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E23" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F23" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G23" s="4"/>
     </row>
@@ -1317,19 +1353,19 @@
         <v>26</v>
       </c>
       <c r="B24" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C24" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" s="3">
         <v>2</v>
       </c>
       <c r="E24" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F24" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G24" s="4"/>
     </row>
@@ -1341,16 +1377,16 @@
         <v>5</v>
       </c>
       <c r="C25" s="3">
+        <v>5</v>
+      </c>
+      <c r="D25" s="3">
         <v>6</v>
-      </c>
-      <c r="D25" s="3">
-        <v>2</v>
       </c>
       <c r="E25" s="3">
         <v>6</v>
       </c>
       <c r="F25" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G25" s="4"/>
     </row>
@@ -1365,10 +1401,10 @@
         <v>5</v>
       </c>
       <c r="D26" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E26" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F26" s="3">
         <v>5</v>
@@ -1380,19 +1416,19 @@
         <v>29</v>
       </c>
       <c r="B27" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C27" s="3">
         <v>6</v>
       </c>
       <c r="D27" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E27" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F27" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G27" s="4"/>
     </row>
@@ -1401,19 +1437,19 @@
         <v>30</v>
       </c>
       <c r="B28" s="3">
+        <v>3</v>
+      </c>
+      <c r="C28" s="3">
         <v>4</v>
       </c>
-      <c r="C28" s="3">
-        <v>5</v>
-      </c>
       <c r="D28" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E28" s="3">
+        <v>6</v>
+      </c>
+      <c r="F28" s="3">
         <v>2</v>
-      </c>
-      <c r="F28" s="3">
-        <v>4</v>
       </c>
       <c r="G28" s="4"/>
     </row>
@@ -1426,6 +1462,12 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1459,7 +1501,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1479,7 +1521,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1489,29 +1531,29 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1519,99 +1561,99 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="7">
-        <v>6.3</v>
+        <v>42</v>
+      </c>
+      <c r="C13" s="8">
+        <v>9.5</v>
       </c>
       <c r="D13" s="3">
         <v>1</v>
       </c>
-      <c r="E13" s="8"/>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="7">
-        <v>4.3</v>
+        <v>43</v>
+      </c>
+      <c r="C14" s="8">
+        <v>12.4</v>
       </c>
       <c r="D14" s="3">
-        <v>1</v>
-      </c>
-      <c r="E14" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="7">
-        <v>6.7</v>
+        <v>44</v>
+      </c>
+      <c r="C15" s="8">
+        <v>4.4</v>
       </c>
       <c r="D15" s="3">
-        <v>7</v>
-      </c>
-      <c r="E15" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="7">
-        <v>2.9</v>
+        <v>45</v>
+      </c>
+      <c r="C16" s="8">
+        <v>3.6</v>
       </c>
       <c r="D16" s="3">
-        <v>6</v>
-      </c>
-      <c r="E16" s="8"/>
+        <v>4</v>
+      </c>
+      <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="7">
-        <v>1.5</v>
+        <v>46</v>
+      </c>
+      <c r="C17" s="8">
+        <v>2</v>
       </c>
       <c r="D17" s="3">
-        <v>8</v>
-      </c>
-      <c r="E17" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="7">
-        <v>15.5</v>
+        <v>47</v>
+      </c>
+      <c r="C18" s="8">
+        <v>4</v>
       </c>
       <c r="D18" s="3">
-        <v>5</v>
-      </c>
-      <c r="E18" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="E18" s="9"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="8"/>
+        <v>48</v>
+      </c>
+      <c r="E19" s="9"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1628,10 +1670,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A13" sqref="A13:D37"/>
+      <selection activeCell="A13" sqref="A13:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1644,7 +1686,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1669,27 +1711,27 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="13" t="s">
-        <v>53</v>
+      <c r="A13" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1697,85 +1739,85 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="7">
-        <v>8.63</v>
+        <v>55</v>
+      </c>
+      <c r="B15" s="8">
+        <v>6.13</v>
       </c>
       <c r="C15" s="3">
-        <v>18</v>
-      </c>
-      <c r="D15" s="8"/>
+        <v>27</v>
+      </c>
+      <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="7">
-        <v>8.039999999999999</v>
+        <v>56</v>
+      </c>
+      <c r="B16" s="8">
+        <v>9.75</v>
       </c>
       <c r="C16" s="3">
-        <v>10</v>
-      </c>
-      <c r="D16" s="8"/>
+        <v>17</v>
+      </c>
+      <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="7">
-        <v>16.53</v>
+        <v>57</v>
+      </c>
+      <c r="B17" s="8">
+        <v>12.28</v>
       </c>
       <c r="C17" s="3">
-        <v>33</v>
-      </c>
-      <c r="D17" s="8"/>
+        <v>23</v>
+      </c>
+      <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="7">
-        <v>19.65</v>
+        <v>58</v>
+      </c>
+      <c r="B18" s="8">
+        <v>26.31</v>
       </c>
       <c r="C18" s="3">
-        <v>14</v>
-      </c>
-      <c r="D18" s="8"/>
+        <v>44</v>
+      </c>
+      <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="7">
-        <v>16.74</v>
+        <v>59</v>
+      </c>
+      <c r="B19" s="8">
+        <v>18.43</v>
       </c>
       <c r="C19" s="3">
-        <v>41</v>
-      </c>
-      <c r="D19" s="8"/>
+        <v>32</v>
+      </c>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="14"/>
+      <c r="C20" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="13"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
@@ -1784,8 +1826,8 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="13" t="s">
-        <v>60</v>
+      <c r="A22" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1793,85 +1835,85 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="7">
-        <v>1.77</v>
+        <v>55</v>
+      </c>
+      <c r="B24" s="8">
+        <v>28.4</v>
       </c>
       <c r="C24" s="3">
-        <v>13</v>
-      </c>
-      <c r="D24" s="8"/>
+        <v>50</v>
+      </c>
+      <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="7">
-        <v>18.15</v>
+        <v>56</v>
+      </c>
+      <c r="B25" s="8">
+        <v>15.47</v>
       </c>
       <c r="C25" s="3">
-        <v>45</v>
-      </c>
-      <c r="D25" s="8"/>
+        <v>20</v>
+      </c>
+      <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="7">
-        <v>18.51</v>
+        <v>57</v>
+      </c>
+      <c r="B26" s="8">
+        <v>23.42</v>
       </c>
       <c r="C26" s="3">
-        <v>46</v>
-      </c>
-      <c r="D26" s="8"/>
+        <v>20</v>
+      </c>
+      <c r="D26" s="9"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="7">
-        <v>26.67</v>
+        <v>58</v>
+      </c>
+      <c r="B27" s="8">
+        <v>29.030000000000001</v>
       </c>
       <c r="C27" s="3">
-        <v>27</v>
-      </c>
-      <c r="D27" s="8"/>
+        <v>6</v>
+      </c>
+      <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="7">
-        <v>11.12</v>
+        <v>59</v>
+      </c>
+      <c r="B28" s="8">
+        <v>19.96</v>
       </c>
       <c r="C28" s="3">
-        <v>32</v>
-      </c>
-      <c r="D28" s="8"/>
+        <v>46</v>
+      </c>
+      <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="14"/>
+      <c r="C29" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="13"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
@@ -1880,8 +1922,8 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="13" t="s">
-        <v>62</v>
+      <c r="A31" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1889,89 +1931,97 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="7">
-        <v>7.41</v>
+        <v>55</v>
+      </c>
+      <c r="B33" s="8">
+        <v>22.44</v>
       </c>
       <c r="C33" s="3">
-        <v>44</v>
-      </c>
-      <c r="D33" s="8"/>
+        <v>40</v>
+      </c>
+      <c r="D33" s="9"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="7">
-        <v>11.41</v>
+        <v>56</v>
+      </c>
+      <c r="B34" s="8">
+        <v>25.68</v>
       </c>
       <c r="C34" s="3">
-        <v>38</v>
-      </c>
-      <c r="D34" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="D34" s="9"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="7">
-        <v>28.65</v>
+        <v>57</v>
+      </c>
+      <c r="B35" s="8">
+        <v>23.63</v>
       </c>
       <c r="C35" s="3">
-        <v>48</v>
-      </c>
-      <c r="D35" s="8"/>
+        <v>34</v>
+      </c>
+      <c r="D35" s="9"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="7">
-        <v>2.99</v>
+        <v>58</v>
+      </c>
+      <c r="B36" s="8">
+        <v>11.24</v>
       </c>
       <c r="C36" s="3">
-        <v>18</v>
-      </c>
-      <c r="D36" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="D36" s="9"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="7">
-        <v>14.46</v>
+        <v>59</v>
+      </c>
+      <c r="B37" s="8">
+        <v>8.12</v>
       </c>
       <c r="C37" s="3">
-        <v>16</v>
-      </c>
-      <c r="D37" s="8"/>
+        <v>24</v>
+      </c>
+      <c r="D37" s="9"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="C38" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D38" s="11"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="13"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="C40" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D40" s="12"/>
+      <c r="C40" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="C41" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1991,10 +2041,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A11" sqref="A11:L18"/>
+      <selection activeCell="A11" sqref="A11:L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2014,111 +2064,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="15" t="s">
-        <v>65</v>
+      <c r="A1" s="14" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="B11" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" s="16" t="s">
+      <c r="G11" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="L11" s="16" t="s">
+      <c r="J11" s="15" t="s">
         <v>79</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D12" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E12" s="3">
+        <v>4</v>
+      </c>
+      <c r="F12" s="3">
+        <v>2</v>
+      </c>
+      <c r="G12" s="3">
+        <v>2</v>
+      </c>
+      <c r="H12" s="3">
         <v>3</v>
-      </c>
-      <c r="F12" s="3">
-        <v>6</v>
-      </c>
-      <c r="G12" s="3">
-        <v>5</v>
-      </c>
-      <c r="H12" s="3">
-        <v>5</v>
       </c>
       <c r="I12" s="3">
         <v>4</v>
       </c>
       <c r="J12" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -2126,31 +2176,31 @@
     <row r="13" spans="1:12">
       <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D13" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E13" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F13" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G13" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H13" s="3">
+        <v>5</v>
+      </c>
+      <c r="I13" s="3">
         <v>6</v>
       </c>
-      <c r="I13" s="3">
-        <v>4</v>
-      </c>
       <c r="J13" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
@@ -2158,31 +2208,31 @@
     <row r="14" spans="1:12">
       <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D14" s="3">
         <v>4</v>
       </c>
       <c r="E14" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F14" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G14" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H14" s="3">
         <v>2</v>
       </c>
       <c r="I14" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J14" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
@@ -2190,31 +2240,31 @@
     <row r="15" spans="1:12">
       <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D15" s="3">
+        <v>3</v>
+      </c>
+      <c r="E15" s="3">
         <v>2</v>
       </c>
-      <c r="E15" s="3">
-        <v>5</v>
-      </c>
       <c r="F15" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G15" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H15" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I15" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J15" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -2222,72 +2272,136 @@
     <row r="16" spans="1:12">
       <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D16" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E16" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F16" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G16" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H16" s="3">
         <v>4</v>
       </c>
       <c r="I16" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J16" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="3">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3">
+        <v>5</v>
+      </c>
+      <c r="F17" s="3">
+        <v>5</v>
+      </c>
+      <c r="G17" s="3">
+        <v>5</v>
+      </c>
+      <c r="H17" s="3">
+        <v>6</v>
+      </c>
+      <c r="I17" s="3">
+        <v>5</v>
+      </c>
+      <c r="J17" s="3">
+        <v>6</v>
+      </c>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" s="3">
+        <v>2</v>
+      </c>
+      <c r="E18" s="3">
+        <v>4</v>
+      </c>
+      <c r="F18" s="3">
+        <v>2</v>
+      </c>
+      <c r="G18" s="3">
+        <v>4</v>
+      </c>
+      <c r="H18" s="3">
+        <v>3</v>
+      </c>
+      <c r="I18" s="3">
+        <v>3</v>
+      </c>
+      <c r="J18" s="3">
+        <v>2</v>
+      </c>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="D18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="D20:L20"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2300,10 +2414,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A29" sqref="A29:B31"/>
+      <selection activeCell="A31" sqref="A31:B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2314,238 +2428,260 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="15" t="s">
-        <v>91</v>
+      <c r="A1" s="14" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="5" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C11" s="7">
-        <v>13078</v>
+        <v>107</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1979</v>
+      </c>
+      <c r="C11" s="8">
+        <v>5976</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C12" s="7">
-        <v>8229</v>
+        <v>108</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1976</v>
+      </c>
+      <c r="C12" s="8">
+        <v>9286</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C13" s="7">
-        <v>9412</v>
+        <v>109</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1991</v>
+      </c>
+      <c r="C13" s="8">
+        <v>10641</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C14" s="7">
-        <v>9044</v>
+        <v>110</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1991</v>
+      </c>
+      <c r="C14" s="8">
+        <v>6038</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C15" s="7">
-        <v>4159</v>
+        <v>111</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1998</v>
+      </c>
+      <c r="C15" s="8">
+        <v>9832</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C16" s="7">
-        <v>11762</v>
+        <v>112</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1996</v>
+      </c>
+      <c r="C16" s="8">
+        <v>13593</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C17" s="7">
-        <v>14659</v>
+        <v>113</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1988</v>
+      </c>
+      <c r="C17" s="8">
+        <v>10645</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B18" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C18" s="7">
-        <v>9735</v>
+      <c r="B18" s="3">
+        <v>1991</v>
+      </c>
+      <c r="C18" s="8">
+        <v>12135</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C19" s="7">
-        <v>13457</v>
+      <c r="B19" s="3">
+        <v>1986</v>
+      </c>
+      <c r="C19" s="8">
+        <v>4187</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C20" s="7">
-        <v>11253</v>
+        <v>116</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1986</v>
+      </c>
+      <c r="C20" s="8">
+        <v>2656</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C21" s="7">
-        <v>12282</v>
+        <v>117</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1992</v>
+      </c>
+      <c r="C21" s="8">
+        <v>4486</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C22" s="7">
-        <v>2683</v>
+        <v>118</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1991</v>
+      </c>
+      <c r="C22" s="8">
+        <v>5154</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C23" s="7">
-        <v>14253</v>
+        <v>119</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1978</v>
+      </c>
+      <c r="C23" s="8">
+        <v>12890</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C24" s="7">
-        <v>4082</v>
+        <v>120</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1984</v>
+      </c>
+      <c r="C24" s="8">
+        <v>3196</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C25" s="7">
-        <v>11445</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="17" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>129</v>
-      </c>
-      <c r="B29" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1997</v>
+      </c>
+      <c r="C25" s="8">
+        <v>3038</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B26" s="3">
+        <v>1981</v>
+      </c>
+      <c r="C26" s="8">
+        <v>9701</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B27" s="3">
+        <v>2003</v>
+      </c>
+      <c r="C27" s="8">
+        <v>6092</v>
+      </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>130</v>
-      </c>
-      <c r="B30" s="6"/>
+      <c r="A30" s="16" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>131</v>
-      </c>
-      <c r="B31" s="6"/>
+        <v>125</v>
+      </c>
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>126</v>
+      </c>
+      <c r="B32" s="7"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>127</v>
+      </c>
+      <c r="B33" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2562,10 +2698,230 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A44" sqref="A44:B48"/>
+      <selection activeCell="A10" sqref="A10:C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="true" style="0"/>
+    <col min="2" max="2" width="15" customWidth="true" style="0"/>
+    <col min="3" max="3" width="18" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B11" s="3">
+        <v>173</v>
+      </c>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B12" s="3">
+        <v>150</v>
+      </c>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B13" s="3">
+        <v>176</v>
+      </c>
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B14" s="3">
+        <v>91</v>
+      </c>
+      <c r="C14" s="9"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B15" s="3">
+        <v>128</v>
+      </c>
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B16" s="3">
+        <v>92</v>
+      </c>
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B17" s="3">
+        <v>185</v>
+      </c>
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B18" s="3">
+        <v>91</v>
+      </c>
+      <c r="C18" s="9"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B19" s="3">
+        <v>144</v>
+      </c>
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B20" s="3">
+        <v>172</v>
+      </c>
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B21" s="3">
+        <v>113</v>
+      </c>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B22" s="3">
+        <v>114</v>
+      </c>
+      <c r="C22" s="9"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B23" s="3">
+        <v>119</v>
+      </c>
+      <c r="C23" s="9"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B24" s="3">
+        <v>187</v>
+      </c>
+      <c r="C24" s="9"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B25" s="3">
+        <v>193</v>
+      </c>
+      <c r="C25" s="9"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B26" s="3">
+        <v>120</v>
+      </c>
+      <c r="C26" s="9"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B27" s="3">
+        <v>162</v>
+      </c>
+      <c r="C27" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:G49"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A45" sqref="A45:B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2580,86 +2936,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="15" t="s">
-        <v>132</v>
+      <c r="A1" s="14" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="5" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2667,22 +3023,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="D16" s="7">
-        <v>966</v>
-      </c>
-      <c r="E16" s="7">
-        <v>1130</v>
+        <v>169</v>
+      </c>
+      <c r="D16" s="8">
+        <v>845</v>
+      </c>
+      <c r="E16" s="8">
+        <v>1039</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2690,22 +3046,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D17" s="7">
-        <v>1185</v>
-      </c>
-      <c r="E17" s="7">
-        <v>1647</v>
+        <v>172</v>
+      </c>
+      <c r="D17" s="8">
+        <v>1173</v>
+      </c>
+      <c r="E17" s="8">
+        <v>1314</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2713,22 +3069,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="D18" s="7">
-        <v>562</v>
-      </c>
-      <c r="E18" s="7">
-        <v>663</v>
+        <v>169</v>
+      </c>
+      <c r="D18" s="8">
+        <v>1453</v>
+      </c>
+      <c r="E18" s="8">
+        <v>1903</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2736,22 +3092,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1011</v>
-      </c>
-      <c r="E19" s="7">
-        <v>1132</v>
+        <v>169</v>
+      </c>
+      <c r="D19" s="8">
+        <v>1067</v>
+      </c>
+      <c r="E19" s="8">
+        <v>1238</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2759,22 +3115,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D20" s="7">
-        <v>762</v>
-      </c>
-      <c r="E20" s="7">
-        <v>953</v>
+        <v>181</v>
+      </c>
+      <c r="D20" s="8">
+        <v>1029</v>
+      </c>
+      <c r="E20" s="8">
+        <v>1173</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2782,22 +3138,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>154</v>
+        <v>183</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1349</v>
-      </c>
-      <c r="E21" s="7">
-        <v>1781</v>
+        <v>181</v>
+      </c>
+      <c r="D21" s="8">
+        <v>1045</v>
+      </c>
+      <c r="E21" s="8">
+        <v>1202</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2805,22 +3161,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="D22" s="7">
-        <v>693</v>
-      </c>
-      <c r="E22" s="7">
-        <v>894</v>
+        <v>186</v>
+      </c>
+      <c r="D22" s="8">
+        <v>1046</v>
+      </c>
+      <c r="E22" s="8">
+        <v>1454</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>153</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2828,22 +3184,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D23" s="7">
-        <v>981</v>
-      </c>
-      <c r="E23" s="7">
-        <v>1207</v>
+        <v>190</v>
+      </c>
+      <c r="D23" s="8">
+        <v>713</v>
+      </c>
+      <c r="E23" s="8">
+        <v>884</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2851,19 +3207,19 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D24" s="7">
-        <v>753</v>
-      </c>
-      <c r="E24" s="7">
-        <v>1032</v>
+        <v>192</v>
+      </c>
+      <c r="D24" s="8">
+        <v>610</v>
+      </c>
+      <c r="E24" s="8">
+        <v>702</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>156</v>
+        <v>193</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>176</v>
@@ -2874,22 +3230,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D25" s="7">
-        <v>1371</v>
-      </c>
-      <c r="E25" s="7">
-        <v>1700</v>
+        <v>195</v>
+      </c>
+      <c r="D25" s="8">
+        <v>1246</v>
+      </c>
+      <c r="E25" s="8">
+        <v>1570</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2897,22 +3253,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D26" s="7">
-        <v>1380</v>
-      </c>
-      <c r="E26" s="7">
-        <v>1932</v>
+        <v>197</v>
+      </c>
+      <c r="D26" s="8">
+        <v>1285</v>
+      </c>
+      <c r="E26" s="8">
+        <v>1593</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2920,22 +3276,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D27" s="7">
-        <v>689</v>
-      </c>
-      <c r="E27" s="7">
-        <v>758</v>
+        <v>198</v>
+      </c>
+      <c r="D27" s="8">
+        <v>1100</v>
+      </c>
+      <c r="E27" s="8">
+        <v>1364</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>157</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2943,22 +3299,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>154</v>
+        <v>183</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="D28" s="7">
-        <v>1349</v>
-      </c>
-      <c r="E28" s="7">
-        <v>1767</v>
+        <v>198</v>
+      </c>
+      <c r="D28" s="8">
+        <v>1288</v>
+      </c>
+      <c r="E28" s="8">
+        <v>1623</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2966,22 +3322,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D29" s="7">
-        <v>1264</v>
-      </c>
-      <c r="E29" s="7">
-        <v>1631</v>
+        <v>202</v>
+      </c>
+      <c r="D29" s="8">
+        <v>1444</v>
+      </c>
+      <c r="E29" s="8">
+        <v>1949</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>174</v>
+        <v>200</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2989,22 +3345,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>158</v>
+        <v>189</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="D30" s="7">
-        <v>1114</v>
-      </c>
-      <c r="E30" s="7">
-        <v>1281</v>
+      <c r="D30" s="8">
+        <v>895</v>
+      </c>
+      <c r="E30" s="8">
+        <v>1217</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3012,22 +3368,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D31" s="7">
-        <v>579</v>
-      </c>
-      <c r="E31" s="7">
-        <v>677</v>
+        <v>198</v>
+      </c>
+      <c r="D31" s="8">
+        <v>1495</v>
+      </c>
+      <c r="E31" s="8">
+        <v>1884</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3035,22 +3391,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D32" s="7">
-        <v>1038</v>
-      </c>
-      <c r="E32" s="7">
-        <v>1360</v>
+        <v>204</v>
+      </c>
+      <c r="D32" s="8">
+        <v>1233</v>
+      </c>
+      <c r="E32" s="8">
+        <v>1615</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3058,22 +3414,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D33" s="7">
-        <v>1446</v>
-      </c>
-      <c r="E33" s="7">
-        <v>1981</v>
+        <v>205</v>
+      </c>
+      <c r="D33" s="8">
+        <v>1016</v>
+      </c>
+      <c r="E33" s="8">
+        <v>1229</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>156</v>
+        <v>206</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>153</v>
+        <v>203</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3081,22 +3437,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D34" s="7">
-        <v>1222</v>
-      </c>
-      <c r="E34" s="7">
-        <v>1662</v>
+        <v>197</v>
+      </c>
+      <c r="D34" s="8">
+        <v>1262</v>
+      </c>
+      <c r="E34" s="8">
+        <v>1767</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3104,22 +3460,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>150</v>
+        <v>189</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D35" s="7">
-        <v>1170</v>
-      </c>
-      <c r="E35" s="7">
-        <v>1439</v>
+        <v>192</v>
+      </c>
+      <c r="D35" s="8">
+        <v>1306</v>
+      </c>
+      <c r="E35" s="8">
+        <v>1515</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3127,22 +3483,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D36" s="7">
-        <v>1077</v>
-      </c>
-      <c r="E36" s="7">
-        <v>1195</v>
+        <v>202</v>
+      </c>
+      <c r="D36" s="8">
+        <v>1365</v>
+      </c>
+      <c r="E36" s="8">
+        <v>1870</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3150,22 +3506,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D37" s="7">
-        <v>1428</v>
-      </c>
-      <c r="E37" s="7">
-        <v>1871</v>
+        <v>208</v>
+      </c>
+      <c r="D37" s="8">
+        <v>567</v>
+      </c>
+      <c r="E37" s="8">
+        <v>709</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>157</v>
+        <v>185</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3173,22 +3529,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D38" s="7">
-        <v>1325</v>
-      </c>
-      <c r="E38" s="7">
-        <v>1762</v>
+        <v>186</v>
+      </c>
+      <c r="D38" s="8">
+        <v>1481</v>
+      </c>
+      <c r="E38" s="8">
+        <v>1822</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3196,22 +3552,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D39" s="7">
-        <v>1065</v>
-      </c>
-      <c r="E39" s="7">
-        <v>1363</v>
+        <v>209</v>
+      </c>
+      <c r="D39" s="8">
+        <v>945</v>
+      </c>
+      <c r="E39" s="8">
+        <v>1049</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3222,55 +3578,78 @@
         <v>183</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="D40" s="7">
-        <v>1250</v>
-      </c>
-      <c r="E40" s="7">
-        <v>1688</v>
+        <v>198</v>
+      </c>
+      <c r="D40" s="8">
+        <v>1143</v>
+      </c>
+      <c r="E40" s="8">
+        <v>1257</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="17" t="s">
-        <v>128</v>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="3">
+        <v>26</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D41" s="8">
+        <v>1075</v>
+      </c>
+      <c r="E41" s="8">
+        <v>1236</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" t="s">
-        <v>197</v>
-      </c>
-      <c r="B44" s="6"/>
+      <c r="A44" s="16" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>198</v>
-      </c>
-      <c r="B45" s="6"/>
+        <v>211</v>
+      </c>
+      <c r="B45" s="7"/>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>199</v>
-      </c>
-      <c r="B46" s="6"/>
+        <v>212</v>
+      </c>
+      <c r="B46" s="7"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>200</v>
-      </c>
-      <c r="B47" s="6"/>
+        <v>213</v>
+      </c>
+      <c r="B47" s="7"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>201</v>
-      </c>
-      <c r="B48" s="6"/>
+        <v>214</v>
+      </c>
+      <c r="B48" s="7"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>215</v>
+      </c>
+      <c r="B49" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
